--- a/taluo.xlsx
+++ b/taluo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>塔罗牌名称</t>
   </si>
@@ -19,47 +19,71 @@
     <t>解读内容</t>
   </si>
   <si>
-    <t>塔罗牌1</t>
+    <t>愚人</t>
   </si>
   <si>
-    <t>解释内容1</t>
+    <t>冒险、无知、新的起点，你将迎接新的旅程和机会。</t>
   </si>
   <si>
-    <t>塔罗牌2</t>
+    <t>魔术师</t>
   </si>
   <si>
-    <t>解释内容2</t>
+    <t>创造力、能力、自信，你有实现目标的能力。</t>
   </si>
   <si>
-    <t>塔罗牌3</t>
+    <t>女祭司</t>
   </si>
   <si>
-    <t>解释内容3</t>
+    <t>直觉、隐秘、知识、深藏，要倾听内心的声音。</t>
   </si>
   <si>
-    <t>塔罗牌4</t>
+    <t>女皇</t>
   </si>
   <si>
-    <t>解释内容4</t>
+    <t>丰饶、母性、温柔，你将收获爱与滋养。</t>
   </si>
   <si>
-    <t>塔罗牌5</t>
+    <t>皇帝</t>
   </si>
   <si>
-    <t>解释内容5</t>
+    <t>权力、稳定、领导力，你需要掌握自己的局面。</t>
   </si>
   <si>
-    <t>塔罗牌6</t>
+    <t>教皇</t>
   </si>
   <si>
-    <t>解释内容6</t>
+    <t>传统、道德、信仰，寻找内心和谐与宽容。</t>
+  </si>
+  <si>
+    <t>恋人</t>
+  </si>
+  <si>
+    <t>爱、选择、关系，你面临人际关系的决策。</t>
+  </si>
+  <si>
+    <t>战车</t>
+  </si>
+  <si>
+    <t>胜利、决心、掌控，你将迎来成功和进展。</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>力量、勇气、耐心，需要内心平静与坚定。</t>
+  </si>
+  <si>
+    <t>隐士</t>
+  </si>
+  <si>
+    <t>寻求内省、独处、智慧，通过独自思考来找到答案。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -74,6 +98,11 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -92,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -101,6 +130,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,6 +352,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="41.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -330,7 +368,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -338,7 +376,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -346,7 +384,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -354,7 +392,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -362,7 +400,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -370,9 +408,3008 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="4"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="4"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="4"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="4"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="4"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="4"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="4"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="4"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="4"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="4"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="4"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="4"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="4"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="4"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="4"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="4"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="4"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="4"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="4"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="4"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="4"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="4"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="4"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="4"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="4"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="4"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="4"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="4"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="4"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="4"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="4"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="4"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="4"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="4"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="4"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="4"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="4"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="4"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="4"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="4"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="4"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="4"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="4"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="4"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="4"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="4"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="4"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="4"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="4"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="4"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="4"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="4"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="4"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="4"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="4"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="4"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="4"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="4"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="4"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="4"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="4"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="4"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="4"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="4"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="4"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="4"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="4"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="4"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="4"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="4"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="4"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="4"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="4"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="4"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="4"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="4"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="4"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="4"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="4"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="4"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="4"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="4"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="4"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="4"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="4"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="4"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="4"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="4"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="4"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="4"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="4"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="4"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="4"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="4"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="4"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="4"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="4"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="4"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="4"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="4"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="4"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="4"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="4"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="4"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="4"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="4"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="4"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="4"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="4"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="4"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="4"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="4"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="4"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="4"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="4"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="4"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="4"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="4"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="4"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="4"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="4"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="4"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="4"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="4"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="4"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="4"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="4"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="4"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="4"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="4"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="4"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="4"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="4"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="4"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="4"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="4"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="4"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="4"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="4"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="4"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="4"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="4"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="4"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="4"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="4"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="4"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="4"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="4"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="4"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="4"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="4"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="4"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="4"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="4"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="4"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="4"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="4"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="4"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="4"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="4"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="4"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="4"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="4"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="4"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="4"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="4"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="4"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="4"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="4"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="4"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="4"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="4"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="4"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="4"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="4"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="4"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="4"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="4"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="4"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="4"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="4"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="4"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="4"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="4"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="4"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="4"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="4"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="4"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="4"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="4"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="4"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="4"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="4"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="4"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="4"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="4"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="4"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="4"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="4"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="4"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="4"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="4"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="4"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="4"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="4"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="4"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="4"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="4"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="4"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="4"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="4"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="4"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="4"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="4"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="4"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="4"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="4"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="4"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="4"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="4"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="4"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="4"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="4"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="4"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="4"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="4"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="4"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="4"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="4"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="4"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="4"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="4"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="4"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="4"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="4"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="4"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="4"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="4"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="4"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="4"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="4"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="4"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="4"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="4"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="4"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="4"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="4"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="4"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="4"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="4"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="4"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="4"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="4"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="4"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="4"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="4"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="4"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="4"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="4"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="4"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="4"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="4"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="4"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="4"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="4"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="4"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="4"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="4"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="4"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="4"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="4"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="4"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="4"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="4"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="4"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="4"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="4"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="4"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="4"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="4"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="4"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="4"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="4"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="4"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="4"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="4"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="4"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="4"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="4"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="4"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="4"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="4"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="4"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="4"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="4"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="4"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="4"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="4"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="4"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="4"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="4"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="4"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="4"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="4"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="4"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="4"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="4"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="4"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="4"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="4"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="4"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="4"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="4"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="4"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="4"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="4"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="4"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="4"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="4"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="4"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="4"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="4"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="4"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="4"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="4"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="4"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="4"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="4"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="4"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="4"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="4"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="4"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="4"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="4"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="4"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="4"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="4"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="4"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="4"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="4"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="4"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="4"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="4"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="4"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="4"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="4"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="4"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="4"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="4"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="4"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="4"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="4"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="4"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="4"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="4"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="4"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="4"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="4"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="4"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="4"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="4"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="4"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="4"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="4"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="4"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="4"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="4"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="4"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="4"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="4"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="4"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="4"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="4"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="4"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="4"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="4"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="4"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="4"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="4"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="4"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="4"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="4"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="4"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="4"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="4"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="4"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="4"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="4"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="4"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="4"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="4"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="4"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="4"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="4"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="4"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="4"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="4"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="4"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="4"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="4"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="4"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="4"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="4"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="4"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="4"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="4"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="4"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="4"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="4"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="4"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="4"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="4"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="4"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="4"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="4"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="4"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="4"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="4"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="4"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="4"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="4"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="4"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="4"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="4"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="4"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="4"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="4"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="4"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="4"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="4"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="4"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="4"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="4"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="4"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="4"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="4"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="4"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="4"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="4"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="4"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="4"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="4"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="4"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="4"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="4"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="4"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="4"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="4"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="4"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="4"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="4"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="4"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="4"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="4"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="4"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="4"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="4"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="4"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="4"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="4"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="4"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="4"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="4"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="4"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="4"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="4"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="4"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="4"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="4"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="4"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="4"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="4"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="4"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="4"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="4"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="4"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="4"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="4"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="4"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="4"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="4"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="4"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="4"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="4"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="4"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="4"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="4"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="4"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="4"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="4"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="4"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="4"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="4"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="4"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="4"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="4"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="4"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="4"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="4"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="4"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="4"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="4"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="4"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="4"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="4"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="4"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="4"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="4"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="4"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="4"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="4"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="4"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="4"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="4"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="4"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="4"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="4"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="4"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="4"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="4"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="4"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="4"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="4"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="4"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="4"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="4"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="4"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="4"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="4"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="4"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="4"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="4"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="4"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="4"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="4"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="4"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="4"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="4"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="4"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="4"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="4"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="4"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="4"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="4"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="4"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="4"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="4"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="4"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="4"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="4"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="4"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="4"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="4"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="4"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="4"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="4"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/taluo.xlsx
+++ b/taluo.xlsx
@@ -4,14 +4,17 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$B$71</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="134">
   <si>
     <t>塔罗牌名称</t>
   </si>
@@ -19,71 +22,407 @@
     <t>解读内容</t>
   </si>
   <si>
-    <t>愚人</t>
-  </si>
-  <si>
-    <t>冒险、无知、新的起点，你将迎接新的旅程和机会。</t>
-  </si>
-  <si>
-    <t>魔术师</t>
-  </si>
-  <si>
-    <t>创造力、能力、自信，你有实现目标的能力。</t>
-  </si>
-  <si>
-    <t>女祭司</t>
-  </si>
-  <si>
-    <t>直觉、隐秘、知识、深藏，要倾听内心的声音。</t>
-  </si>
-  <si>
-    <t>女皇</t>
-  </si>
-  <si>
-    <t>丰饶、母性、温柔，你将收获爱与滋养。</t>
-  </si>
-  <si>
-    <t>皇帝</t>
-  </si>
-  <si>
-    <t>权力、稳定、领导力，你需要掌握自己的局面。</t>
-  </si>
-  <si>
-    <t>教皇</t>
-  </si>
-  <si>
-    <t>传统、道德、信仰，寻找内心和谐与宽容。</t>
-  </si>
-  <si>
-    <t>恋人</t>
-  </si>
-  <si>
-    <t>爱、选择、关系，你面临人际关系的决策。</t>
-  </si>
-  <si>
-    <t>战车</t>
-  </si>
-  <si>
-    <t>胜利、决心、掌控，你将迎来成功和进展。</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>力量、勇气、耐心，需要内心平静与坚定。</t>
-  </si>
-  <si>
-    <t>隐士</t>
-  </si>
-  <si>
-    <t>寻求内省、独处、智慧，通过独自思考来找到答案。</t>
+    <t>世界正位</t>
+  </si>
+  <si>
+    <t>代表着一种迈向成功的能量。你有克服困难的能力，只要坚持自己的信念，勇往直前，一定能够迎来成功的那一天。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>世界逆位</t>
+  </si>
+  <si>
+    <t>你们从暧昧发展成恋人的几率不是很大，除非是你坚持不懈，再次拿出热情和行动去追求他，否则，你们很难更近一步。对他，你其实没有很强烈的新鲜感和热情，他对你也比较熟悉，觉得现在这种状态不错，也不是非要改变。</t>
+  </si>
+  <si>
+    <t>倒吊人正位</t>
+  </si>
+  <si>
+    <t>学会换位思考，观察他除了感情以外，是不是还有别的事情分心烦恼，不用总把自己的感受放在第一位，觉得他不够努力去爱你，去体谅他，你们的关系才会越来越好。</t>
+  </si>
+  <si>
+    <t>倒吊人逆位</t>
+  </si>
+  <si>
+    <t>对于复合，你并没有报太大的希望，因为你也很清楚，即使回头，未必能得到回报，他不是值得奉献的对象。你只是因为多了这一种可能而犹豫，所以藕断丝连。</t>
+  </si>
+  <si>
+    <t>命运之轮正位</t>
+  </si>
+  <si>
+    <t>这是命中注定的一段感情，不论如何都要和对方在一起，即使经历过各种的风风雨雨，彼此仍然很珍惜两个人的感情。</t>
+  </si>
+  <si>
+    <t>他很珍惜跟你的这段关系，复合的念头也很强烈。</t>
+  </si>
+  <si>
+    <t>圣杯一逆位</t>
+  </si>
+  <si>
+    <t>你们目前处于沟通中断的状态，不能平和积极的交流，两个人的心都比较乱，想从头开始，都渴望对方先低头。</t>
+  </si>
+  <si>
+    <t>圣杯三逆位</t>
+  </si>
+  <si>
+    <t>身边的朋友或许能为你提供帮助，不过，你们共同认识的人中，也有在中间搅局的，如果这段感情中有其他关系的插入，很可能是你们都认识的人。</t>
+  </si>
+  <si>
+    <t>圣杯二正位</t>
+  </si>
+  <si>
+    <t>你觉得这段感情，大部分情况是令你满意的，只是缺乏热恋期的激烈，你希望对方能加倍投入情绪价值，但对方的表现令你小小失望。</t>
+  </si>
+  <si>
+    <t>圣杯二逆位</t>
+  </si>
+  <si>
+    <t>你们之间的感情很真挚，如同初恋，或者说彼此一方就是另一方的初恋，你们的感情将会从青涩步入到更深层次的阶段，但是因为缺乏理解和沟通，可能会引发矛盾和争吵。</t>
+  </si>
+  <si>
+    <t>这段感情有一定的几率会复合，但是复合不代表会解决掉你们之间的问题，甚至有可能加剧冲突，建议两个人坦诚交流，遇见问题不要用极端方式处理。</t>
+  </si>
+  <si>
+    <t>圣杯五逆位</t>
+  </si>
+  <si>
+    <t>他对感情有些失望，不肯敞开心扉，你们之间最大的阻碍就是无法有效沟通。</t>
+  </si>
+  <si>
+    <t>圣杯侍从正位</t>
+  </si>
+  <si>
+    <t>他心中可能有了理想恋人的剪影。</t>
+  </si>
+  <si>
+    <t>圣杯六逆位</t>
+  </si>
+  <si>
+    <t>他对旧情人非常怀念。</t>
+  </si>
+  <si>
+    <t>圣杯十正位</t>
+  </si>
+  <si>
+    <t>你现在甜蜜幸福，感情不再内耗，精神领域富足。</t>
+  </si>
+  <si>
+    <t>她现在快乐而满足，对这段感情有一定的信心。</t>
+  </si>
+  <si>
+    <t>圣杯四正位</t>
+  </si>
+  <si>
+    <t>你对于这段关系并不是很满意，也觉得仍然有改进的空间，其实有些东西是你标准太高，并不是真的有什么不好。两个人目前都没有很强的动力想要复合，因此感情也处于停滞状态。</t>
+  </si>
+  <si>
+    <t>圣杯四逆位</t>
+  </si>
+  <si>
+    <t>你对于学新的东西比较快，但是对于以前学过的东西则不是很扎实，你如果下定决心，就要做好学习时间管理，上岸的几率还是很大的。</t>
+  </si>
+  <si>
+    <t>圣杯国王正位</t>
+  </si>
+  <si>
+    <t>他目前的想法比较成熟，不想再沉浸在恋爱游戏，他想朝着婚姻的方向，去选择下一任伴侣。但同时，他也会因为这种想法而感到紧张，生怕做错决定，因此复合犹犹豫豫。</t>
+  </si>
+  <si>
+    <t>圣杯骑士正位</t>
+  </si>
+  <si>
+    <t>对他来说，他觉得你是个很有魅力的恋人，你身上的很多特质都能吸引到他，让他对这段感情很满意。</t>
+  </si>
+  <si>
+    <t>太阳逆位</t>
+  </si>
+  <si>
+    <t>现在感情的发展遇到了一些困难与障碍，当中或许会夹着一些误会，只要你想解决，通常很快就会解决。除非你想要放弃这段感情，不肯正面面对，或者有了新的选择。</t>
+  </si>
+  <si>
+    <t>宝剑一正位</t>
+  </si>
+  <si>
+    <t>你对爱情有了新的理解，对他的感情也考虑的很全面，你想纠正感情中的一些失误，再给你们彼此一次机会，用心经营这段感情。</t>
+  </si>
+  <si>
+    <t>宝剑一逆位</t>
+  </si>
+  <si>
+    <t>这段感情复合的可能性很小，破裂的原因很大一种可能是被外力介入，你因无法承受压力，情绪近乎崩溃。这这段感情中，你受了很多委屈，希望他带着歉意来挽回你几乎不太可能。</t>
+  </si>
+  <si>
+    <t>你不喜欢一成不变，喜欢突破，近期有出国的机会，但是贸然出行对你来说可能不是太好的选择，特别是如果出行的目的是创业，可能要面临很多意想不到的压力，建议思考清楚再做决定。</t>
+  </si>
+  <si>
+    <t>宝剑三正位</t>
+  </si>
+  <si>
+    <t>他现在非常的伤心，失望，回想一路走来，觉得很痛心。</t>
+  </si>
+  <si>
+    <t>宝剑侍从正位</t>
+  </si>
+  <si>
+    <t>在感情关系当中两个人都很在意对方，你们都很紧张彼此的行踪，对方喜欢试探，这让你对这段关系没什么信心。</t>
+  </si>
+  <si>
+    <t>宝剑十正位</t>
+  </si>
+  <si>
+    <t>这是一段受尽伤害的过往，心痛，失望，难过，在这段感情中占据了很大的成分，甚至盖过了很多恋爱时的甜蜜。</t>
+  </si>
+  <si>
+    <t>宝剑皇后正位</t>
+  </si>
+  <si>
+    <t>对于你们之间，你现在已经是理性大于感性，你没有那么喜欢他，更多的是内心的不甘心，和曾经的遗憾在搅动心弦，他对你则有一种小小的优越感，对曾经表白过的你，他内心里有一些骄傲的。</t>
+  </si>
+  <si>
+    <t>宝剑骑士正位</t>
+  </si>
+  <si>
+    <t>如果你有足够的行动力，主动争取，你们复合的几率会非常大。</t>
+  </si>
+  <si>
+    <t>宝剑骑士逆位</t>
+  </si>
+  <si>
+    <t>对工作你是有一定野心的，也可以说是有些自负，但常常会做出冲动之举，甚至会为了关系好的同事出头，但其实这么做的结果并不见得对你自身太好，反而容易被利用。</t>
+  </si>
+  <si>
+    <t>如果过于直接和冲动的表白，很可能会失败，你们之间缺乏了解和耐心，情感互动都还在朦胧阶段，缺乏深层次的情感交流。</t>
+  </si>
+  <si>
+    <t>恋人正位</t>
+  </si>
+  <si>
+    <t>两个人对彼此还有很深的感情，所以存在着复合的可能性。你们的精神领域非常默契，如果放弃关系，彼此都会是莫大的遗憾。</t>
+  </si>
+  <si>
+    <t>恶魔正位</t>
+  </si>
+  <si>
+    <t>恶魔正位象征着欲望，近期在你身上可能会有一些引诱，比如新的桃花，旧日的恋人，注意保护好自己的心。</t>
+  </si>
+  <si>
+    <t>愚人正位</t>
+  </si>
+  <si>
+    <t>你们有一段轻松美好的过去，两个人都比较单纯，没有计较很多东西，但也正因为如此，感情没有抵达深层次的沟通交流，显得有些理想化。</t>
+  </si>
+  <si>
+    <t>星币一正位</t>
+  </si>
+  <si>
+    <t>你们的阻碍来自，他可能会尝试新的恋情，或者获得一段相对轻松的感情关系。</t>
+  </si>
+  <si>
+    <t>星币一逆位</t>
+  </si>
+  <si>
+    <t>这段感情本身并没有稳固的基础，两个人基于一时的冲动选择了在一起，一方很可能处于弱势，花了很多时间和精力取悦对方，但是没有得到相应的回报。</t>
+  </si>
+  <si>
+    <t>星币七正位</t>
+  </si>
+  <si>
+    <t>现在双方的感情算是蛮稳定的，但是仍然会去思考下一步该怎么办，现在的情况不适合发展新的恋情，因为你给自己压力太大，应该更深层的梳理你的需求，规划好想要的目标。</t>
+  </si>
+  <si>
+    <t>你是一个对自己和伴侣都有高要求的一个人，希望做一步看三步，不管生活还是感情，都要有规划。你想要跟他在一起，并不是因为感情有多深，更多的想法是，你觉得跟他重归于好会节省很多精力，不用再去费心了解新人，但你内心其实也有些忐忑，觉得你们之间摩擦不断，如果认定他，会不会太草率。</t>
+  </si>
+  <si>
+    <t>星币七逆位</t>
+  </si>
+  <si>
+    <t>他对自己目前的感情状态有些灰心，有跟你复合的念头，但也没想好复合是否能让他变得更好，所以始终拿不定主意。</t>
+  </si>
+  <si>
+    <t>星币三逆位</t>
+  </si>
+  <si>
+    <t>他最近的经济压力很大。</t>
+  </si>
+  <si>
+    <t>星币九正位</t>
+  </si>
+  <si>
+    <t>这段感情带给彼此很多快乐，也可以共同去体验很多感观方面的享受，你们都很愿意为这段关系投入很多时间和金钱。内心里也都是想要好好经营这段感情的。</t>
+  </si>
+  <si>
+    <t>星币九逆位</t>
+  </si>
+  <si>
+    <t>这段感情的阻碍来自其他情感的介入，以及某一方对物质上有更高的追求，而另一方无法满足，即使这个问题现在没有体现的很明显，以后也会出现很大的冲突。</t>
+  </si>
+  <si>
+    <t>星币五逆位</t>
+  </si>
+  <si>
+    <t>你们这段感情，修成正果的几率很小，两个人都缺乏行动力，希望对方付出更多一些，觉得自己的回报不够多。</t>
+  </si>
+  <si>
+    <t>星币侍从正位</t>
+  </si>
+  <si>
+    <t>她想要踏实稳定的感情，希望恋人绝对的忠诚，对自己足够宠爱。</t>
+  </si>
+  <si>
+    <t>这段感情时时刻刻都在进步和变化，如果你乐于改变，会对你们的关系有很积极的作用。</t>
+  </si>
+  <si>
+    <t>星币侍从逆位</t>
+  </si>
+  <si>
+    <t>这是一段不对等的恋情，从头到尾，受到伤害和放不下的，就只有你一个，去找找朋友，或者多参与社交吧，面对现实，跟他告别，才会有新的开始。</t>
+  </si>
+  <si>
+    <t>星币十逆位</t>
+  </si>
+  <si>
+    <t>你们之间的物质平衡被打破了，他对你还是会付出，但不会像从前那样慷慨，你对他的感情也建立在物质与利益之中，如果他不能达到你的理想状态，你很快就会放弃他。</t>
+  </si>
+  <si>
+    <t>星币四正位</t>
+  </si>
+  <si>
+    <t>她对你很依赖，会有一点缺乏安全感，因此有时候会想办法控制你以免被其他人夺走。</t>
+  </si>
+  <si>
+    <t>星币国王正位</t>
+  </si>
+  <si>
+    <t>这段关系仍然有复合的可能性，先提出的一方会在之后的恋情中变得很被动，如果可以说服自己接受这种落入下风的姿态，或者找到更和谐的相处方式，俩人可能会一起规划未来。</t>
+  </si>
+  <si>
+    <t>星币皇后正位</t>
+  </si>
+  <si>
+    <t>你们两个之间，还有一点感情，但并不深刻，对他来说，你是个很好的恋爱对象，对你而言，他太过捉摸不定，想要复合还是不太容易的。</t>
+  </si>
+  <si>
+    <t>星币皇后逆位</t>
+  </si>
+  <si>
+    <t>他觉得这段感情很不稳定，互相之间缺乏理解和尊重，即使复合，有着隔阂如果越演越烈，他担心将来会比现在更痛苦，对未来没有信心，所以复合意愿不是很强烈。</t>
+  </si>
+  <si>
+    <t>星币骑士正位</t>
+  </si>
+  <si>
+    <t>他认为家人关系稳定，你是个比较理想的结婚对象，因此他不太重视浪漫，比较追求实际。</t>
+  </si>
+  <si>
+    <t>权杖七正位</t>
+  </si>
+  <si>
+    <t>他想明白很多问题，也懂得主动争取的必要，权衡利弊之后，他觉得你是个不错的选择，所以跃跃欲试。</t>
+  </si>
+  <si>
+    <t>权杖二正位</t>
+  </si>
+  <si>
+    <t>她很欣赏你身上沉稳又细腻的一面，觉得很有男子气概。</t>
+  </si>
+  <si>
+    <t>你们的感情属于相互吸引，互相欣赏并且势均力敌，你们对彼此的存在已经形成习惯，偶尔会觉得少一些激情，但是并没有想要改变现状，甚至分开。</t>
+  </si>
+  <si>
+    <t>权杖二逆位</t>
+  </si>
+  <si>
+    <t>对于学业和未来，你处在非常矛盾的阶段，无法抉择，过于犹豫，适应性差，失去平衡，无法自我突破，失去控制权。</t>
+  </si>
+  <si>
+    <t>权杖侍从逆位</t>
+  </si>
+  <si>
+    <t>这段感情并不愉快，每天都在提心害怕中度过，但你又无法甘心地放下，因此使得自己陷入极大的情绪起伏当中。与其这样辛苦，不如转移目光，别再执着在这段感情中的角色，做朋友比恋人开心。</t>
+  </si>
+  <si>
+    <t>权杖十正位</t>
+  </si>
+  <si>
+    <t>这段感情带来的压力多于快乐，即使表面上看起来还好，其实内部问题丛生，你很想扛下你们之间的压力，好好在一起，但却力不从心。</t>
+  </si>
+  <si>
+    <t>权杖四正位</t>
+  </si>
+  <si>
+    <t>你们目前的状况很稳定，你也比较满意现在的局面，彼此间通过磨合拥有一定的默契，但同时也觉得这段感情有些平淡，缺乏激情与新鲜感。</t>
+  </si>
+  <si>
+    <t>权杖四逆位</t>
+  </si>
+  <si>
+    <t>这段关系其实还有可能复合，这要看你付出多少的努力，如果能找到良性的相处模式，你们还是会有很大收获的。</t>
+  </si>
+  <si>
+    <t>权杖国王正位</t>
+  </si>
+  <si>
+    <t>如果说你们这段感情会有阻碍，多半来自家长的介入。</t>
+  </si>
+  <si>
+    <t>权杖骑士正位</t>
+  </si>
+  <si>
+    <t>现在感情上遇到某些挑战，也有可能是相隔两地或是聚少离多的状态，如果想要保持这段感情，就要更主动地付出。</t>
+  </si>
+  <si>
+    <t>权杖骑士逆位</t>
+  </si>
+  <si>
+    <t>你对这段感情，还报有一丝不切实际的期待，有可能出现了背叛，他对你们之间，缺乏责任感。</t>
+  </si>
+  <si>
+    <t>正义正位</t>
+  </si>
+  <si>
+    <t>你正在两个人之间寻找一个平衡点，你有很多地方需要向她妥协，你想要在不同的观点之间寻找更加和谐的相处方式。</t>
+  </si>
+  <si>
+    <t>你们之间处于一种彼此能互相满足，但也需要互相妥协的状态，对于感情，你的信念感和控制欲都很强，总想完全拿捏对方，这让他不能完全接受，即使表面温柔，内心里却很不服。</t>
+  </si>
+  <si>
+    <t>正义逆位</t>
+  </si>
+  <si>
+    <t>两个人之间出现不平衡的状况，一方在情感上不是很专一，总是抱着权衡利弊的心态是去交往，而另一方觉得自己的需求不被看见，因此总是产生问题和冲突。</t>
+  </si>
+  <si>
+    <t>皇帝逆位</t>
+  </si>
+  <si>
+    <t>你对工作缺乏自律，没有严格要求自己，即使有能力也不想受人摆布，很难长时间从事一项工作。</t>
+  </si>
+  <si>
+    <t>隐士逆位</t>
+  </si>
+  <si>
+    <t>你们的感情状况不太明朗，虽然没有实质性的在一起，但是彼此间有一些说不清道不明的情愫，还有种缘分未尽的感觉。</t>
+  </si>
+  <si>
+    <t>高塔正位</t>
+  </si>
+  <si>
+    <t>高塔的出现，意味着不破不立，你不用去纠结过去 种种，只要清楚自己到底想要什么样的结果，想好好在一起，就放下心中所有的不快，用她的方式，好好爱她。</t>
+  </si>
+  <si>
+    <t>高塔逆位</t>
+  </si>
+  <si>
+    <t>你们两个之间，面对着巨大的压力，两个人都顾虑重重，无法突破暧昧，修成正果。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -92,11 +431,6 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -121,20 +455,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -146,6 +489,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -349,7 +696,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -360,3058 +710,4096 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="4"/>
+      <c r="A43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
+      <c r="A44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="4"/>
+      <c r="A48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="4"/>
+      <c r="A49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="4"/>
+      <c r="A50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="4"/>
+      <c r="A51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="4"/>
+      <c r="A52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
+      <c r="A53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="4"/>
+      <c r="A54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
+      <c r="A55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="4"/>
+      <c r="A56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
+      <c r="A57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
+      <c r="A58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
+      <c r="A59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
+      <c r="A60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
+      <c r="A61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="4"/>
+      <c r="A62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="4"/>
+      <c r="A63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="4"/>
+      <c r="A64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="4"/>
+      <c r="A65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
+      <c r="A66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="4"/>
+      <c r="A67" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="4"/>
+      <c r="A68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="4"/>
+      <c r="A69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="4"/>
+      <c r="A70" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="4"/>
+      <c r="A71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="4"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73">
-      <c r="A73" s="4"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="4"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="4"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="4"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="4"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="4"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79">
-      <c r="A79" s="4"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="4"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81">
-      <c r="A81" s="4"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82">
-      <c r="A82" s="4"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83">
-      <c r="A83" s="4"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="4"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="4"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86">
-      <c r="A86" s="4"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87">
-      <c r="A87" s="4"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="4"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="4"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="4"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="4"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="4"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="4"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="4"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="4"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="4"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="4"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="4"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="4"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="4"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="4"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="4"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="4"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="4"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="4"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="4"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="4"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="4"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="4"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="4"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="4"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="4"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113">
-      <c r="A113" s="4"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="4"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="4"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="4"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="4"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="4"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="4"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="4"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="4"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="4"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="4"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="4"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="4"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="4"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="4"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="4"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="4"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="4"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="4"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132">
-      <c r="A132" s="4"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="4"/>
+      <c r="A133" s="7"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="4"/>
+      <c r="A134" s="7"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="4"/>
+      <c r="A135" s="7"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="4"/>
+      <c r="A136" s="7"/>
+      <c r="B136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="4"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="4"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="4"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="6"/>
     </row>
     <row r="140">
-      <c r="A140" s="4"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="4"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="4"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="4"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="4"/>
+      <c r="A144" s="7"/>
+      <c r="B144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="4"/>
+      <c r="A145" s="7"/>
+      <c r="B145" s="6"/>
     </row>
     <row r="146">
-      <c r="A146" s="4"/>
+      <c r="A146" s="7"/>
+      <c r="B146" s="6"/>
     </row>
     <row r="147">
-      <c r="A147" s="4"/>
+      <c r="A147" s="7"/>
+      <c r="B147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="4"/>
+      <c r="A148" s="7"/>
+      <c r="B148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="4"/>
+      <c r="A149" s="7"/>
+      <c r="B149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="4"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="4"/>
+      <c r="A151" s="7"/>
+      <c r="B151" s="6"/>
     </row>
     <row r="152">
-      <c r="A152" s="4"/>
+      <c r="A152" s="7"/>
+      <c r="B152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="4"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="4"/>
+      <c r="A154" s="7"/>
+      <c r="B154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="4"/>
+      <c r="A155" s="7"/>
+      <c r="B155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="4"/>
+      <c r="A156" s="7"/>
+      <c r="B156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="4"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="4"/>
+      <c r="A158" s="7"/>
+      <c r="B158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="4"/>
+      <c r="A159" s="7"/>
+      <c r="B159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="4"/>
+      <c r="A160" s="7"/>
+      <c r="B160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="4"/>
+      <c r="A161" s="7"/>
+      <c r="B161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="4"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="4"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="4"/>
+      <c r="A164" s="7"/>
+      <c r="B164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="4"/>
+      <c r="A165" s="7"/>
+      <c r="B165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="4"/>
+      <c r="A166" s="7"/>
+      <c r="B166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="4"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="4"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="6"/>
     </row>
     <row r="169">
-      <c r="A169" s="4"/>
+      <c r="A169" s="7"/>
+      <c r="B169" s="6"/>
     </row>
     <row r="170">
-      <c r="A170" s="4"/>
+      <c r="A170" s="7"/>
+      <c r="B170" s="6"/>
     </row>
     <row r="171">
-      <c r="A171" s="4"/>
+      <c r="A171" s="7"/>
+      <c r="B171" s="6"/>
     </row>
     <row r="172">
-      <c r="A172" s="4"/>
+      <c r="A172" s="7"/>
+      <c r="B172" s="6"/>
     </row>
     <row r="173">
-      <c r="A173" s="4"/>
+      <c r="A173" s="7"/>
+      <c r="B173" s="6"/>
     </row>
     <row r="174">
-      <c r="A174" s="4"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="6"/>
     </row>
     <row r="175">
-      <c r="A175" s="4"/>
+      <c r="A175" s="7"/>
+      <c r="B175" s="6"/>
     </row>
     <row r="176">
-      <c r="A176" s="4"/>
+      <c r="A176" s="7"/>
+      <c r="B176" s="6"/>
     </row>
     <row r="177">
-      <c r="A177" s="4"/>
+      <c r="A177" s="7"/>
+      <c r="B177" s="6"/>
     </row>
     <row r="178">
-      <c r="A178" s="4"/>
+      <c r="A178" s="7"/>
+      <c r="B178" s="6"/>
     </row>
     <row r="179">
-      <c r="A179" s="4"/>
+      <c r="A179" s="7"/>
+      <c r="B179" s="6"/>
     </row>
     <row r="180">
-      <c r="A180" s="4"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="6"/>
     </row>
     <row r="181">
-      <c r="A181" s="4"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="6"/>
     </row>
     <row r="182">
-      <c r="A182" s="4"/>
+      <c r="A182" s="7"/>
+      <c r="B182" s="6"/>
     </row>
     <row r="183">
-      <c r="A183" s="4"/>
+      <c r="A183" s="7"/>
+      <c r="B183" s="6"/>
     </row>
     <row r="184">
-      <c r="A184" s="4"/>
+      <c r="A184" s="7"/>
+      <c r="B184" s="6"/>
     </row>
     <row r="185">
-      <c r="A185" s="4"/>
+      <c r="A185" s="7"/>
+      <c r="B185" s="6"/>
     </row>
     <row r="186">
-      <c r="A186" s="4"/>
+      <c r="A186" s="7"/>
+      <c r="B186" s="6"/>
     </row>
     <row r="187">
-      <c r="A187" s="4"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="6"/>
     </row>
     <row r="188">
-      <c r="A188" s="4"/>
+      <c r="A188" s="7"/>
+      <c r="B188" s="6"/>
     </row>
     <row r="189">
-      <c r="A189" s="4"/>
+      <c r="A189" s="7"/>
+      <c r="B189" s="6"/>
     </row>
     <row r="190">
-      <c r="A190" s="4"/>
+      <c r="A190" s="7"/>
+      <c r="B190" s="6"/>
     </row>
     <row r="191">
-      <c r="A191" s="4"/>
+      <c r="A191" s="7"/>
+      <c r="B191" s="6"/>
     </row>
     <row r="192">
-      <c r="A192" s="4"/>
+      <c r="A192" s="7"/>
+      <c r="B192" s="6"/>
     </row>
     <row r="193">
-      <c r="A193" s="4"/>
+      <c r="A193" s="7"/>
+      <c r="B193" s="6"/>
     </row>
     <row r="194">
-      <c r="A194" s="4"/>
+      <c r="A194" s="7"/>
+      <c r="B194" s="6"/>
     </row>
     <row r="195">
-      <c r="A195" s="4"/>
+      <c r="A195" s="7"/>
+      <c r="B195" s="6"/>
     </row>
     <row r="196">
-      <c r="A196" s="4"/>
+      <c r="A196" s="7"/>
+      <c r="B196" s="6"/>
     </row>
     <row r="197">
-      <c r="A197" s="4"/>
+      <c r="A197" s="7"/>
+      <c r="B197" s="6"/>
     </row>
     <row r="198">
-      <c r="A198" s="4"/>
+      <c r="A198" s="7"/>
+      <c r="B198" s="6"/>
     </row>
     <row r="199">
-      <c r="A199" s="4"/>
+      <c r="A199" s="7"/>
+      <c r="B199" s="6"/>
     </row>
     <row r="200">
-      <c r="A200" s="4"/>
+      <c r="A200" s="7"/>
+      <c r="B200" s="6"/>
     </row>
     <row r="201">
-      <c r="A201" s="4"/>
+      <c r="A201" s="7"/>
+      <c r="B201" s="6"/>
     </row>
     <row r="202">
-      <c r="A202" s="4"/>
+      <c r="A202" s="7"/>
+      <c r="B202" s="6"/>
     </row>
     <row r="203">
-      <c r="A203" s="4"/>
+      <c r="A203" s="7"/>
+      <c r="B203" s="6"/>
     </row>
     <row r="204">
-      <c r="A204" s="4"/>
+      <c r="A204" s="7"/>
+      <c r="B204" s="6"/>
     </row>
     <row r="205">
-      <c r="A205" s="4"/>
+      <c r="A205" s="7"/>
+      <c r="B205" s="6"/>
     </row>
     <row r="206">
-      <c r="A206" s="4"/>
+      <c r="A206" s="7"/>
+      <c r="B206" s="6"/>
     </row>
     <row r="207">
-      <c r="A207" s="4"/>
+      <c r="A207" s="7"/>
+      <c r="B207" s="6"/>
     </row>
     <row r="208">
-      <c r="A208" s="4"/>
+      <c r="A208" s="7"/>
+      <c r="B208" s="6"/>
     </row>
     <row r="209">
-      <c r="A209" s="4"/>
+      <c r="A209" s="7"/>
+      <c r="B209" s="6"/>
     </row>
     <row r="210">
-      <c r="A210" s="4"/>
+      <c r="A210" s="7"/>
+      <c r="B210" s="6"/>
     </row>
     <row r="211">
-      <c r="A211" s="4"/>
+      <c r="A211" s="7"/>
+      <c r="B211" s="6"/>
     </row>
     <row r="212">
-      <c r="A212" s="4"/>
+      <c r="A212" s="7"/>
+      <c r="B212" s="6"/>
     </row>
     <row r="213">
-      <c r="A213" s="4"/>
+      <c r="A213" s="7"/>
+      <c r="B213" s="6"/>
     </row>
     <row r="214">
-      <c r="A214" s="4"/>
+      <c r="A214" s="7"/>
+      <c r="B214" s="6"/>
     </row>
     <row r="215">
-      <c r="A215" s="4"/>
+      <c r="A215" s="7"/>
+      <c r="B215" s="6"/>
     </row>
     <row r="216">
-      <c r="A216" s="4"/>
+      <c r="A216" s="7"/>
+      <c r="B216" s="6"/>
     </row>
     <row r="217">
-      <c r="A217" s="4"/>
+      <c r="A217" s="7"/>
+      <c r="B217" s="6"/>
     </row>
     <row r="218">
-      <c r="A218" s="4"/>
+      <c r="A218" s="7"/>
+      <c r="B218" s="6"/>
     </row>
     <row r="219">
-      <c r="A219" s="4"/>
+      <c r="A219" s="7"/>
+      <c r="B219" s="6"/>
     </row>
     <row r="220">
-      <c r="A220" s="4"/>
+      <c r="A220" s="7"/>
+      <c r="B220" s="6"/>
     </row>
     <row r="221">
-      <c r="A221" s="4"/>
+      <c r="A221" s="7"/>
+      <c r="B221" s="6"/>
     </row>
     <row r="222">
-      <c r="A222" s="4"/>
+      <c r="A222" s="7"/>
+      <c r="B222" s="6"/>
     </row>
     <row r="223">
-      <c r="A223" s="4"/>
+      <c r="A223" s="7"/>
+      <c r="B223" s="6"/>
     </row>
     <row r="224">
-      <c r="A224" s="4"/>
+      <c r="A224" s="7"/>
+      <c r="B224" s="6"/>
     </row>
     <row r="225">
-      <c r="A225" s="4"/>
+      <c r="A225" s="7"/>
+      <c r="B225" s="6"/>
     </row>
     <row r="226">
-      <c r="A226" s="4"/>
+      <c r="A226" s="7"/>
+      <c r="B226" s="6"/>
     </row>
     <row r="227">
-      <c r="A227" s="4"/>
+      <c r="A227" s="7"/>
+      <c r="B227" s="6"/>
     </row>
     <row r="228">
-      <c r="A228" s="4"/>
+      <c r="A228" s="7"/>
+      <c r="B228" s="6"/>
     </row>
     <row r="229">
-      <c r="A229" s="4"/>
+      <c r="A229" s="7"/>
+      <c r="B229" s="6"/>
     </row>
     <row r="230">
-      <c r="A230" s="4"/>
+      <c r="A230" s="7"/>
+      <c r="B230" s="6"/>
     </row>
     <row r="231">
-      <c r="A231" s="4"/>
+      <c r="A231" s="7"/>
+      <c r="B231" s="6"/>
     </row>
     <row r="232">
-      <c r="A232" s="4"/>
+      <c r="A232" s="7"/>
+      <c r="B232" s="6"/>
     </row>
     <row r="233">
-      <c r="A233" s="4"/>
+      <c r="A233" s="7"/>
+      <c r="B233" s="6"/>
     </row>
     <row r="234">
-      <c r="A234" s="4"/>
+      <c r="A234" s="7"/>
+      <c r="B234" s="6"/>
     </row>
     <row r="235">
-      <c r="A235" s="4"/>
+      <c r="A235" s="7"/>
+      <c r="B235" s="6"/>
     </row>
     <row r="236">
-      <c r="A236" s="4"/>
+      <c r="A236" s="7"/>
+      <c r="B236" s="6"/>
     </row>
     <row r="237">
-      <c r="A237" s="4"/>
+      <c r="A237" s="7"/>
+      <c r="B237" s="6"/>
     </row>
     <row r="238">
-      <c r="A238" s="4"/>
+      <c r="A238" s="7"/>
+      <c r="B238" s="6"/>
     </row>
     <row r="239">
-      <c r="A239" s="4"/>
+      <c r="A239" s="7"/>
+      <c r="B239" s="6"/>
     </row>
     <row r="240">
-      <c r="A240" s="4"/>
+      <c r="A240" s="7"/>
+      <c r="B240" s="6"/>
     </row>
     <row r="241">
-      <c r="A241" s="4"/>
+      <c r="A241" s="7"/>
+      <c r="B241" s="6"/>
     </row>
     <row r="242">
-      <c r="A242" s="4"/>
+      <c r="A242" s="7"/>
+      <c r="B242" s="6"/>
     </row>
     <row r="243">
-      <c r="A243" s="4"/>
+      <c r="A243" s="7"/>
+      <c r="B243" s="6"/>
     </row>
     <row r="244">
-      <c r="A244" s="4"/>
+      <c r="A244" s="7"/>
+      <c r="B244" s="6"/>
     </row>
     <row r="245">
-      <c r="A245" s="4"/>
+      <c r="A245" s="7"/>
+      <c r="B245" s="6"/>
     </row>
     <row r="246">
-      <c r="A246" s="4"/>
+      <c r="A246" s="7"/>
+      <c r="B246" s="6"/>
     </row>
     <row r="247">
-      <c r="A247" s="4"/>
+      <c r="A247" s="7"/>
+      <c r="B247" s="6"/>
     </row>
     <row r="248">
-      <c r="A248" s="4"/>
+      <c r="A248" s="7"/>
+      <c r="B248" s="6"/>
     </row>
     <row r="249">
-      <c r="A249" s="4"/>
+      <c r="A249" s="7"/>
+      <c r="B249" s="6"/>
     </row>
     <row r="250">
-      <c r="A250" s="4"/>
+      <c r="A250" s="7"/>
+      <c r="B250" s="6"/>
     </row>
     <row r="251">
-      <c r="A251" s="4"/>
+      <c r="A251" s="7"/>
+      <c r="B251" s="6"/>
     </row>
     <row r="252">
-      <c r="A252" s="4"/>
+      <c r="A252" s="7"/>
+      <c r="B252" s="6"/>
     </row>
     <row r="253">
-      <c r="A253" s="4"/>
+      <c r="A253" s="7"/>
+      <c r="B253" s="6"/>
     </row>
     <row r="254">
-      <c r="A254" s="4"/>
+      <c r="A254" s="7"/>
+      <c r="B254" s="6"/>
     </row>
     <row r="255">
-      <c r="A255" s="4"/>
+      <c r="A255" s="7"/>
+      <c r="B255" s="6"/>
     </row>
     <row r="256">
-      <c r="A256" s="4"/>
+      <c r="A256" s="7"/>
+      <c r="B256" s="6"/>
     </row>
     <row r="257">
-      <c r="A257" s="4"/>
+      <c r="A257" s="7"/>
+      <c r="B257" s="6"/>
     </row>
     <row r="258">
-      <c r="A258" s="4"/>
+      <c r="A258" s="7"/>
+      <c r="B258" s="6"/>
     </row>
     <row r="259">
-      <c r="A259" s="4"/>
+      <c r="A259" s="7"/>
+      <c r="B259" s="6"/>
     </row>
     <row r="260">
-      <c r="A260" s="4"/>
+      <c r="A260" s="7"/>
+      <c r="B260" s="6"/>
     </row>
     <row r="261">
-      <c r="A261" s="4"/>
+      <c r="A261" s="7"/>
+      <c r="B261" s="6"/>
     </row>
     <row r="262">
-      <c r="A262" s="4"/>
+      <c r="A262" s="7"/>
+      <c r="B262" s="6"/>
     </row>
     <row r="263">
-      <c r="A263" s="4"/>
+      <c r="A263" s="7"/>
+      <c r="B263" s="6"/>
     </row>
     <row r="264">
-      <c r="A264" s="4"/>
+      <c r="A264" s="7"/>
+      <c r="B264" s="6"/>
     </row>
     <row r="265">
-      <c r="A265" s="4"/>
+      <c r="A265" s="7"/>
+      <c r="B265" s="6"/>
     </row>
     <row r="266">
-      <c r="A266" s="4"/>
+      <c r="A266" s="7"/>
+      <c r="B266" s="6"/>
     </row>
     <row r="267">
-      <c r="A267" s="4"/>
+      <c r="A267" s="7"/>
+      <c r="B267" s="6"/>
     </row>
     <row r="268">
-      <c r="A268" s="4"/>
+      <c r="A268" s="7"/>
+      <c r="B268" s="6"/>
     </row>
     <row r="269">
-      <c r="A269" s="4"/>
+      <c r="A269" s="7"/>
+      <c r="B269" s="6"/>
     </row>
     <row r="270">
-      <c r="A270" s="4"/>
+      <c r="A270" s="7"/>
+      <c r="B270" s="6"/>
     </row>
     <row r="271">
-      <c r="A271" s="4"/>
+      <c r="A271" s="7"/>
+      <c r="B271" s="6"/>
     </row>
     <row r="272">
-      <c r="A272" s="4"/>
+      <c r="A272" s="7"/>
+      <c r="B272" s="6"/>
     </row>
     <row r="273">
-      <c r="A273" s="4"/>
+      <c r="A273" s="7"/>
+      <c r="B273" s="6"/>
     </row>
     <row r="274">
-      <c r="A274" s="4"/>
+      <c r="A274" s="7"/>
+      <c r="B274" s="6"/>
     </row>
     <row r="275">
-      <c r="A275" s="4"/>
+      <c r="A275" s="7"/>
+      <c r="B275" s="6"/>
     </row>
     <row r="276">
-      <c r="A276" s="4"/>
+      <c r="A276" s="7"/>
+      <c r="B276" s="6"/>
     </row>
     <row r="277">
-      <c r="A277" s="4"/>
+      <c r="A277" s="7"/>
+      <c r="B277" s="6"/>
     </row>
     <row r="278">
-      <c r="A278" s="4"/>
+      <c r="A278" s="7"/>
+      <c r="B278" s="6"/>
     </row>
     <row r="279">
-      <c r="A279" s="4"/>
+      <c r="A279" s="7"/>
+      <c r="B279" s="6"/>
     </row>
     <row r="280">
-      <c r="A280" s="4"/>
+      <c r="A280" s="7"/>
+      <c r="B280" s="6"/>
     </row>
     <row r="281">
-      <c r="A281" s="4"/>
+      <c r="A281" s="7"/>
+      <c r="B281" s="6"/>
     </row>
     <row r="282">
-      <c r="A282" s="4"/>
+      <c r="A282" s="7"/>
+      <c r="B282" s="6"/>
     </row>
     <row r="283">
-      <c r="A283" s="4"/>
+      <c r="A283" s="7"/>
+      <c r="B283" s="6"/>
     </row>
     <row r="284">
-      <c r="A284" s="4"/>
+      <c r="A284" s="7"/>
+      <c r="B284" s="6"/>
     </row>
     <row r="285">
-      <c r="A285" s="4"/>
+      <c r="A285" s="7"/>
+      <c r="B285" s="6"/>
     </row>
     <row r="286">
-      <c r="A286" s="4"/>
+      <c r="A286" s="7"/>
+      <c r="B286" s="6"/>
     </row>
     <row r="287">
-      <c r="A287" s="4"/>
+      <c r="A287" s="7"/>
+      <c r="B287" s="6"/>
     </row>
     <row r="288">
-      <c r="A288" s="4"/>
+      <c r="A288" s="7"/>
+      <c r="B288" s="6"/>
     </row>
     <row r="289">
-      <c r="A289" s="4"/>
+      <c r="A289" s="7"/>
+      <c r="B289" s="6"/>
     </row>
     <row r="290">
-      <c r="A290" s="4"/>
+      <c r="A290" s="7"/>
+      <c r="B290" s="6"/>
     </row>
     <row r="291">
-      <c r="A291" s="4"/>
+      <c r="A291" s="7"/>
+      <c r="B291" s="6"/>
     </row>
     <row r="292">
-      <c r="A292" s="4"/>
+      <c r="A292" s="7"/>
+      <c r="B292" s="6"/>
     </row>
     <row r="293">
-      <c r="A293" s="4"/>
+      <c r="A293" s="7"/>
+      <c r="B293" s="6"/>
     </row>
     <row r="294">
-      <c r="A294" s="4"/>
+      <c r="A294" s="7"/>
+      <c r="B294" s="6"/>
     </row>
     <row r="295">
-      <c r="A295" s="4"/>
+      <c r="A295" s="7"/>
+      <c r="B295" s="6"/>
     </row>
     <row r="296">
-      <c r="A296" s="4"/>
+      <c r="A296" s="7"/>
+      <c r="B296" s="6"/>
     </row>
     <row r="297">
-      <c r="A297" s="4"/>
+      <c r="A297" s="7"/>
+      <c r="B297" s="6"/>
     </row>
     <row r="298">
-      <c r="A298" s="4"/>
+      <c r="A298" s="7"/>
+      <c r="B298" s="6"/>
     </row>
     <row r="299">
-      <c r="A299" s="4"/>
+      <c r="A299" s="7"/>
+      <c r="B299" s="6"/>
     </row>
     <row r="300">
-      <c r="A300" s="4"/>
+      <c r="A300" s="7"/>
+      <c r="B300" s="6"/>
     </row>
     <row r="301">
-      <c r="A301" s="4"/>
+      <c r="A301" s="7"/>
+      <c r="B301" s="6"/>
     </row>
     <row r="302">
-      <c r="A302" s="4"/>
+      <c r="A302" s="7"/>
+      <c r="B302" s="6"/>
     </row>
     <row r="303">
-      <c r="A303" s="4"/>
+      <c r="A303" s="7"/>
+      <c r="B303" s="6"/>
     </row>
     <row r="304">
-      <c r="A304" s="4"/>
+      <c r="A304" s="7"/>
+      <c r="B304" s="6"/>
     </row>
     <row r="305">
-      <c r="A305" s="4"/>
+      <c r="A305" s="7"/>
+      <c r="B305" s="6"/>
     </row>
     <row r="306">
-      <c r="A306" s="4"/>
+      <c r="A306" s="7"/>
+      <c r="B306" s="6"/>
     </row>
     <row r="307">
-      <c r="A307" s="4"/>
+      <c r="A307" s="7"/>
+      <c r="B307" s="6"/>
     </row>
     <row r="308">
-      <c r="A308" s="4"/>
+      <c r="A308" s="7"/>
+      <c r="B308" s="6"/>
     </row>
     <row r="309">
-      <c r="A309" s="4"/>
+      <c r="A309" s="7"/>
+      <c r="B309" s="6"/>
     </row>
     <row r="310">
-      <c r="A310" s="4"/>
+      <c r="A310" s="7"/>
+      <c r="B310" s="6"/>
     </row>
     <row r="311">
-      <c r="A311" s="4"/>
+      <c r="A311" s="7"/>
+      <c r="B311" s="6"/>
     </row>
     <row r="312">
-      <c r="A312" s="4"/>
+      <c r="A312" s="7"/>
+      <c r="B312" s="6"/>
     </row>
     <row r="313">
-      <c r="A313" s="4"/>
+      <c r="A313" s="7"/>
+      <c r="B313" s="6"/>
     </row>
     <row r="314">
-      <c r="A314" s="4"/>
+      <c r="A314" s="7"/>
+      <c r="B314" s="6"/>
     </row>
     <row r="315">
-      <c r="A315" s="4"/>
+      <c r="A315" s="7"/>
+      <c r="B315" s="6"/>
     </row>
     <row r="316">
-      <c r="A316" s="4"/>
+      <c r="A316" s="7"/>
+      <c r="B316" s="6"/>
     </row>
     <row r="317">
-      <c r="A317" s="4"/>
+      <c r="A317" s="7"/>
+      <c r="B317" s="6"/>
     </row>
     <row r="318">
-      <c r="A318" s="4"/>
+      <c r="A318" s="7"/>
+      <c r="B318" s="6"/>
     </row>
     <row r="319">
-      <c r="A319" s="4"/>
+      <c r="A319" s="7"/>
+      <c r="B319" s="6"/>
     </row>
     <row r="320">
-      <c r="A320" s="4"/>
+      <c r="A320" s="7"/>
+      <c r="B320" s="6"/>
     </row>
     <row r="321">
-      <c r="A321" s="4"/>
+      <c r="A321" s="7"/>
+      <c r="B321" s="6"/>
     </row>
     <row r="322">
-      <c r="A322" s="4"/>
+      <c r="A322" s="7"/>
+      <c r="B322" s="6"/>
     </row>
     <row r="323">
-      <c r="A323" s="4"/>
+      <c r="A323" s="7"/>
+      <c r="B323" s="6"/>
     </row>
     <row r="324">
-      <c r="A324" s="4"/>
+      <c r="A324" s="7"/>
+      <c r="B324" s="6"/>
     </row>
     <row r="325">
-      <c r="A325" s="4"/>
+      <c r="A325" s="7"/>
+      <c r="B325" s="6"/>
     </row>
     <row r="326">
-      <c r="A326" s="4"/>
+      <c r="A326" s="7"/>
+      <c r="B326" s="6"/>
     </row>
     <row r="327">
-      <c r="A327" s="4"/>
+      <c r="A327" s="7"/>
+      <c r="B327" s="6"/>
     </row>
     <row r="328">
-      <c r="A328" s="4"/>
+      <c r="A328" s="7"/>
+      <c r="B328" s="6"/>
     </row>
     <row r="329">
-      <c r="A329" s="4"/>
+      <c r="A329" s="7"/>
+      <c r="B329" s="6"/>
     </row>
     <row r="330">
-      <c r="A330" s="4"/>
+      <c r="A330" s="7"/>
+      <c r="B330" s="6"/>
     </row>
     <row r="331">
-      <c r="A331" s="4"/>
+      <c r="A331" s="7"/>
+      <c r="B331" s="6"/>
     </row>
     <row r="332">
-      <c r="A332" s="4"/>
+      <c r="A332" s="7"/>
+      <c r="B332" s="6"/>
     </row>
     <row r="333">
-      <c r="A333" s="4"/>
+      <c r="A333" s="7"/>
+      <c r="B333" s="6"/>
     </row>
     <row r="334">
-      <c r="A334" s="4"/>
+      <c r="A334" s="7"/>
+      <c r="B334" s="6"/>
     </row>
     <row r="335">
-      <c r="A335" s="4"/>
+      <c r="A335" s="7"/>
+      <c r="B335" s="6"/>
     </row>
     <row r="336">
-      <c r="A336" s="4"/>
+      <c r="A336" s="7"/>
+      <c r="B336" s="6"/>
     </row>
     <row r="337">
-      <c r="A337" s="4"/>
+      <c r="A337" s="7"/>
+      <c r="B337" s="6"/>
     </row>
     <row r="338">
-      <c r="A338" s="4"/>
+      <c r="A338" s="7"/>
+      <c r="B338" s="6"/>
     </row>
     <row r="339">
-      <c r="A339" s="4"/>
+      <c r="A339" s="7"/>
+      <c r="B339" s="6"/>
     </row>
     <row r="340">
-      <c r="A340" s="4"/>
+      <c r="A340" s="7"/>
+      <c r="B340" s="6"/>
     </row>
     <row r="341">
-      <c r="A341" s="4"/>
+      <c r="A341" s="7"/>
+      <c r="B341" s="6"/>
     </row>
     <row r="342">
-      <c r="A342" s="4"/>
+      <c r="A342" s="7"/>
+      <c r="B342" s="6"/>
     </row>
     <row r="343">
-      <c r="A343" s="4"/>
+      <c r="A343" s="7"/>
+      <c r="B343" s="6"/>
     </row>
     <row r="344">
-      <c r="A344" s="4"/>
+      <c r="A344" s="7"/>
+      <c r="B344" s="6"/>
     </row>
     <row r="345">
-      <c r="A345" s="4"/>
+      <c r="A345" s="7"/>
+      <c r="B345" s="6"/>
     </row>
     <row r="346">
-      <c r="A346" s="4"/>
+      <c r="A346" s="7"/>
+      <c r="B346" s="6"/>
     </row>
     <row r="347">
-      <c r="A347" s="4"/>
+      <c r="A347" s="7"/>
+      <c r="B347" s="6"/>
     </row>
     <row r="348">
-      <c r="A348" s="4"/>
+      <c r="A348" s="7"/>
+      <c r="B348" s="6"/>
     </row>
     <row r="349">
-      <c r="A349" s="4"/>
+      <c r="A349" s="7"/>
+      <c r="B349" s="6"/>
     </row>
     <row r="350">
-      <c r="A350" s="4"/>
+      <c r="A350" s="7"/>
+      <c r="B350" s="6"/>
     </row>
     <row r="351">
-      <c r="A351" s="4"/>
+      <c r="A351" s="7"/>
+      <c r="B351" s="6"/>
     </row>
     <row r="352">
-      <c r="A352" s="4"/>
+      <c r="A352" s="7"/>
+      <c r="B352" s="6"/>
     </row>
     <row r="353">
-      <c r="A353" s="4"/>
+      <c r="A353" s="7"/>
+      <c r="B353" s="6"/>
     </row>
     <row r="354">
-      <c r="A354" s="4"/>
+      <c r="A354" s="7"/>
+      <c r="B354" s="6"/>
     </row>
     <row r="355">
-      <c r="A355" s="4"/>
+      <c r="A355" s="7"/>
+      <c r="B355" s="6"/>
     </row>
     <row r="356">
-      <c r="A356" s="4"/>
+      <c r="A356" s="7"/>
+      <c r="B356" s="6"/>
     </row>
     <row r="357">
-      <c r="A357" s="4"/>
+      <c r="A357" s="7"/>
+      <c r="B357" s="6"/>
     </row>
     <row r="358">
-      <c r="A358" s="4"/>
+      <c r="A358" s="7"/>
+      <c r="B358" s="6"/>
     </row>
     <row r="359">
-      <c r="A359" s="4"/>
+      <c r="A359" s="7"/>
+      <c r="B359" s="6"/>
     </row>
     <row r="360">
-      <c r="A360" s="4"/>
+      <c r="A360" s="7"/>
+      <c r="B360" s="6"/>
     </row>
     <row r="361">
-      <c r="A361" s="4"/>
+      <c r="A361" s="7"/>
+      <c r="B361" s="6"/>
     </row>
     <row r="362">
-      <c r="A362" s="4"/>
+      <c r="A362" s="7"/>
+      <c r="B362" s="6"/>
     </row>
     <row r="363">
-      <c r="A363" s="4"/>
+      <c r="A363" s="7"/>
+      <c r="B363" s="6"/>
     </row>
     <row r="364">
-      <c r="A364" s="4"/>
+      <c r="A364" s="7"/>
+      <c r="B364" s="6"/>
     </row>
     <row r="365">
-      <c r="A365" s="4"/>
+      <c r="A365" s="7"/>
+      <c r="B365" s="6"/>
     </row>
     <row r="366">
-      <c r="A366" s="4"/>
+      <c r="A366" s="7"/>
+      <c r="B366" s="6"/>
     </row>
     <row r="367">
-      <c r="A367" s="4"/>
+      <c r="A367" s="7"/>
+      <c r="B367" s="6"/>
     </row>
     <row r="368">
-      <c r="A368" s="4"/>
+      <c r="A368" s="7"/>
+      <c r="B368" s="6"/>
     </row>
     <row r="369">
-      <c r="A369" s="4"/>
+      <c r="A369" s="7"/>
+      <c r="B369" s="6"/>
     </row>
     <row r="370">
-      <c r="A370" s="4"/>
+      <c r="A370" s="7"/>
+      <c r="B370" s="6"/>
     </row>
     <row r="371">
-      <c r="A371" s="4"/>
+      <c r="A371" s="7"/>
+      <c r="B371" s="6"/>
     </row>
     <row r="372">
-      <c r="A372" s="4"/>
+      <c r="A372" s="7"/>
+      <c r="B372" s="6"/>
     </row>
     <row r="373">
-      <c r="A373" s="4"/>
+      <c r="A373" s="7"/>
+      <c r="B373" s="6"/>
     </row>
     <row r="374">
-      <c r="A374" s="4"/>
+      <c r="A374" s="7"/>
+      <c r="B374" s="6"/>
     </row>
     <row r="375">
-      <c r="A375" s="4"/>
+      <c r="A375" s="7"/>
+      <c r="B375" s="6"/>
     </row>
     <row r="376">
-      <c r="A376" s="4"/>
+      <c r="A376" s="7"/>
+      <c r="B376" s="6"/>
     </row>
     <row r="377">
-      <c r="A377" s="4"/>
+      <c r="A377" s="7"/>
+      <c r="B377" s="6"/>
     </row>
     <row r="378">
-      <c r="A378" s="4"/>
+      <c r="A378" s="7"/>
+      <c r="B378" s="6"/>
     </row>
     <row r="379">
-      <c r="A379" s="4"/>
+      <c r="A379" s="7"/>
+      <c r="B379" s="6"/>
     </row>
     <row r="380">
-      <c r="A380" s="4"/>
+      <c r="A380" s="7"/>
+      <c r="B380" s="6"/>
     </row>
     <row r="381">
-      <c r="A381" s="4"/>
+      <c r="A381" s="7"/>
+      <c r="B381" s="6"/>
     </row>
     <row r="382">
-      <c r="A382" s="4"/>
+      <c r="A382" s="7"/>
+      <c r="B382" s="6"/>
     </row>
     <row r="383">
-      <c r="A383" s="4"/>
+      <c r="A383" s="7"/>
+      <c r="B383" s="6"/>
     </row>
     <row r="384">
-      <c r="A384" s="4"/>
+      <c r="A384" s="7"/>
+      <c r="B384" s="6"/>
     </row>
     <row r="385">
-      <c r="A385" s="4"/>
+      <c r="A385" s="7"/>
+      <c r="B385" s="6"/>
     </row>
     <row r="386">
-      <c r="A386" s="4"/>
+      <c r="A386" s="7"/>
+      <c r="B386" s="6"/>
     </row>
     <row r="387">
-      <c r="A387" s="4"/>
+      <c r="A387" s="7"/>
+      <c r="B387" s="6"/>
     </row>
     <row r="388">
-      <c r="A388" s="4"/>
+      <c r="A388" s="7"/>
+      <c r="B388" s="6"/>
     </row>
     <row r="389">
-      <c r="A389" s="4"/>
+      <c r="A389" s="7"/>
+      <c r="B389" s="6"/>
     </row>
     <row r="390">
-      <c r="A390" s="4"/>
+      <c r="A390" s="7"/>
+      <c r="B390" s="6"/>
     </row>
     <row r="391">
-      <c r="A391" s="4"/>
+      <c r="A391" s="7"/>
+      <c r="B391" s="6"/>
     </row>
     <row r="392">
-      <c r="A392" s="4"/>
+      <c r="A392" s="7"/>
+      <c r="B392" s="6"/>
     </row>
     <row r="393">
-      <c r="A393" s="4"/>
+      <c r="A393" s="7"/>
+      <c r="B393" s="6"/>
     </row>
     <row r="394">
-      <c r="A394" s="4"/>
+      <c r="A394" s="7"/>
+      <c r="B394" s="6"/>
     </row>
     <row r="395">
-      <c r="A395" s="4"/>
+      <c r="A395" s="7"/>
+      <c r="B395" s="6"/>
     </row>
     <row r="396">
-      <c r="A396" s="4"/>
+      <c r="A396" s="7"/>
+      <c r="B396" s="6"/>
     </row>
     <row r="397">
-      <c r="A397" s="4"/>
+      <c r="A397" s="7"/>
+      <c r="B397" s="6"/>
     </row>
     <row r="398">
-      <c r="A398" s="4"/>
+      <c r="A398" s="7"/>
+      <c r="B398" s="6"/>
     </row>
     <row r="399">
-      <c r="A399" s="4"/>
+      <c r="A399" s="7"/>
+      <c r="B399" s="6"/>
     </row>
     <row r="400">
-      <c r="A400" s="4"/>
+      <c r="A400" s="7"/>
+      <c r="B400" s="6"/>
     </row>
     <row r="401">
-      <c r="A401" s="4"/>
+      <c r="A401" s="7"/>
+      <c r="B401" s="6"/>
     </row>
     <row r="402">
-      <c r="A402" s="4"/>
+      <c r="A402" s="7"/>
+      <c r="B402" s="6"/>
     </row>
     <row r="403">
-      <c r="A403" s="4"/>
+      <c r="A403" s="7"/>
+      <c r="B403" s="6"/>
     </row>
     <row r="404">
-      <c r="A404" s="4"/>
+      <c r="A404" s="7"/>
+      <c r="B404" s="6"/>
     </row>
     <row r="405">
-      <c r="A405" s="4"/>
+      <c r="A405" s="7"/>
+      <c r="B405" s="6"/>
     </row>
     <row r="406">
-      <c r="A406" s="4"/>
+      <c r="A406" s="7"/>
+      <c r="B406" s="6"/>
     </row>
     <row r="407">
-      <c r="A407" s="4"/>
+      <c r="A407" s="7"/>
+      <c r="B407" s="6"/>
     </row>
     <row r="408">
-      <c r="A408" s="4"/>
+      <c r="A408" s="7"/>
+      <c r="B408" s="6"/>
     </row>
     <row r="409">
-      <c r="A409" s="4"/>
+      <c r="A409" s="7"/>
+      <c r="B409" s="6"/>
     </row>
     <row r="410">
-      <c r="A410" s="4"/>
+      <c r="A410" s="7"/>
+      <c r="B410" s="6"/>
     </row>
     <row r="411">
-      <c r="A411" s="4"/>
+      <c r="A411" s="7"/>
+      <c r="B411" s="6"/>
     </row>
     <row r="412">
-      <c r="A412" s="4"/>
+      <c r="A412" s="7"/>
+      <c r="B412" s="6"/>
     </row>
     <row r="413">
-      <c r="A413" s="4"/>
+      <c r="A413" s="7"/>
+      <c r="B413" s="6"/>
     </row>
     <row r="414">
-      <c r="A414" s="4"/>
+      <c r="A414" s="7"/>
+      <c r="B414" s="6"/>
     </row>
     <row r="415">
-      <c r="A415" s="4"/>
+      <c r="A415" s="7"/>
+      <c r="B415" s="6"/>
     </row>
     <row r="416">
-      <c r="A416" s="4"/>
+      <c r="A416" s="7"/>
+      <c r="B416" s="6"/>
     </row>
     <row r="417">
-      <c r="A417" s="4"/>
+      <c r="A417" s="7"/>
+      <c r="B417" s="6"/>
     </row>
     <row r="418">
-      <c r="A418" s="4"/>
+      <c r="A418" s="7"/>
+      <c r="B418" s="6"/>
     </row>
     <row r="419">
-      <c r="A419" s="4"/>
+      <c r="A419" s="7"/>
+      <c r="B419" s="6"/>
     </row>
     <row r="420">
-      <c r="A420" s="4"/>
+      <c r="A420" s="7"/>
+      <c r="B420" s="6"/>
     </row>
     <row r="421">
-      <c r="A421" s="4"/>
+      <c r="A421" s="7"/>
+      <c r="B421" s="6"/>
     </row>
     <row r="422">
-      <c r="A422" s="4"/>
+      <c r="A422" s="7"/>
+      <c r="B422" s="6"/>
     </row>
     <row r="423">
-      <c r="A423" s="4"/>
+      <c r="A423" s="7"/>
+      <c r="B423" s="6"/>
     </row>
     <row r="424">
-      <c r="A424" s="4"/>
+      <c r="A424" s="7"/>
+      <c r="B424" s="6"/>
     </row>
     <row r="425">
-      <c r="A425" s="4"/>
+      <c r="A425" s="7"/>
+      <c r="B425" s="6"/>
     </row>
     <row r="426">
-      <c r="A426" s="4"/>
+      <c r="A426" s="7"/>
+      <c r="B426" s="6"/>
     </row>
     <row r="427">
-      <c r="A427" s="4"/>
+      <c r="A427" s="7"/>
+      <c r="B427" s="6"/>
     </row>
     <row r="428">
-      <c r="A428" s="4"/>
+      <c r="A428" s="7"/>
+      <c r="B428" s="6"/>
     </row>
     <row r="429">
-      <c r="A429" s="4"/>
+      <c r="A429" s="7"/>
+      <c r="B429" s="6"/>
     </row>
     <row r="430">
-      <c r="A430" s="4"/>
+      <c r="A430" s="7"/>
+      <c r="B430" s="6"/>
     </row>
     <row r="431">
-      <c r="A431" s="4"/>
+      <c r="A431" s="7"/>
+      <c r="B431" s="6"/>
     </row>
     <row r="432">
-      <c r="A432" s="4"/>
+      <c r="A432" s="7"/>
+      <c r="B432" s="6"/>
     </row>
     <row r="433">
-      <c r="A433" s="4"/>
+      <c r="A433" s="7"/>
+      <c r="B433" s="6"/>
     </row>
     <row r="434">
-      <c r="A434" s="4"/>
+      <c r="A434" s="7"/>
+      <c r="B434" s="6"/>
     </row>
     <row r="435">
-      <c r="A435" s="4"/>
+      <c r="A435" s="7"/>
+      <c r="B435" s="6"/>
     </row>
     <row r="436">
-      <c r="A436" s="4"/>
+      <c r="A436" s="7"/>
+      <c r="B436" s="6"/>
     </row>
     <row r="437">
-      <c r="A437" s="4"/>
+      <c r="A437" s="7"/>
+      <c r="B437" s="6"/>
     </row>
     <row r="438">
-      <c r="A438" s="4"/>
+      <c r="A438" s="7"/>
+      <c r="B438" s="6"/>
     </row>
     <row r="439">
-      <c r="A439" s="4"/>
+      <c r="A439" s="7"/>
+      <c r="B439" s="6"/>
     </row>
     <row r="440">
-      <c r="A440" s="4"/>
+      <c r="A440" s="7"/>
+      <c r="B440" s="6"/>
     </row>
     <row r="441">
-      <c r="A441" s="4"/>
+      <c r="A441" s="7"/>
+      <c r="B441" s="6"/>
     </row>
     <row r="442">
-      <c r="A442" s="4"/>
+      <c r="A442" s="7"/>
+      <c r="B442" s="6"/>
     </row>
     <row r="443">
-      <c r="A443" s="4"/>
+      <c r="A443" s="7"/>
+      <c r="B443" s="6"/>
     </row>
     <row r="444">
-      <c r="A444" s="4"/>
+      <c r="A444" s="7"/>
+      <c r="B444" s="6"/>
     </row>
     <row r="445">
-      <c r="A445" s="4"/>
+      <c r="A445" s="7"/>
+      <c r="B445" s="6"/>
     </row>
     <row r="446">
-      <c r="A446" s="4"/>
+      <c r="A446" s="7"/>
+      <c r="B446" s="6"/>
     </row>
     <row r="447">
-      <c r="A447" s="4"/>
+      <c r="A447" s="7"/>
+      <c r="B447" s="6"/>
     </row>
     <row r="448">
-      <c r="A448" s="4"/>
+      <c r="A448" s="7"/>
+      <c r="B448" s="6"/>
     </row>
     <row r="449">
-      <c r="A449" s="4"/>
+      <c r="A449" s="7"/>
+      <c r="B449" s="6"/>
     </row>
     <row r="450">
-      <c r="A450" s="4"/>
+      <c r="A450" s="7"/>
+      <c r="B450" s="6"/>
     </row>
     <row r="451">
-      <c r="A451" s="4"/>
+      <c r="A451" s="7"/>
+      <c r="B451" s="6"/>
     </row>
     <row r="452">
-      <c r="A452" s="4"/>
+      <c r="A452" s="7"/>
+      <c r="B452" s="6"/>
     </row>
     <row r="453">
-      <c r="A453" s="4"/>
+      <c r="A453" s="7"/>
+      <c r="B453" s="6"/>
     </row>
     <row r="454">
-      <c r="A454" s="4"/>
+      <c r="A454" s="7"/>
+      <c r="B454" s="6"/>
     </row>
     <row r="455">
-      <c r="A455" s="4"/>
+      <c r="A455" s="7"/>
+      <c r="B455" s="6"/>
     </row>
     <row r="456">
-      <c r="A456" s="4"/>
+      <c r="A456" s="7"/>
+      <c r="B456" s="6"/>
     </row>
     <row r="457">
-      <c r="A457" s="4"/>
+      <c r="A457" s="7"/>
+      <c r="B457" s="6"/>
     </row>
     <row r="458">
-      <c r="A458" s="4"/>
+      <c r="A458" s="7"/>
+      <c r="B458" s="6"/>
     </row>
     <row r="459">
-      <c r="A459" s="4"/>
+      <c r="A459" s="7"/>
+      <c r="B459" s="6"/>
     </row>
     <row r="460">
-      <c r="A460" s="4"/>
+      <c r="A460" s="7"/>
+      <c r="B460" s="6"/>
     </row>
     <row r="461">
-      <c r="A461" s="4"/>
+      <c r="A461" s="7"/>
+      <c r="B461" s="6"/>
     </row>
     <row r="462">
-      <c r="A462" s="4"/>
+      <c r="A462" s="7"/>
+      <c r="B462" s="6"/>
     </row>
     <row r="463">
-      <c r="A463" s="4"/>
+      <c r="A463" s="7"/>
+      <c r="B463" s="6"/>
     </row>
     <row r="464">
-      <c r="A464" s="4"/>
+      <c r="A464" s="7"/>
+      <c r="B464" s="6"/>
     </row>
     <row r="465">
-      <c r="A465" s="4"/>
+      <c r="A465" s="7"/>
+      <c r="B465" s="6"/>
     </row>
     <row r="466">
-      <c r="A466" s="4"/>
+      <c r="A466" s="7"/>
+      <c r="B466" s="6"/>
     </row>
     <row r="467">
-      <c r="A467" s="4"/>
+      <c r="A467" s="7"/>
+      <c r="B467" s="6"/>
     </row>
     <row r="468">
-      <c r="A468" s="4"/>
+      <c r="A468" s="7"/>
+      <c r="B468" s="6"/>
     </row>
     <row r="469">
-      <c r="A469" s="4"/>
+      <c r="A469" s="7"/>
+      <c r="B469" s="6"/>
     </row>
     <row r="470">
-      <c r="A470" s="4"/>
+      <c r="A470" s="7"/>
+      <c r="B470" s="6"/>
     </row>
     <row r="471">
-      <c r="A471" s="4"/>
+      <c r="A471" s="7"/>
+      <c r="B471" s="6"/>
     </row>
     <row r="472">
-      <c r="A472" s="4"/>
+      <c r="A472" s="7"/>
+      <c r="B472" s="6"/>
     </row>
     <row r="473">
-      <c r="A473" s="4"/>
+      <c r="A473" s="7"/>
+      <c r="B473" s="6"/>
     </row>
     <row r="474">
-      <c r="A474" s="4"/>
+      <c r="A474" s="7"/>
+      <c r="B474" s="6"/>
     </row>
     <row r="475">
-      <c r="A475" s="4"/>
+      <c r="A475" s="7"/>
+      <c r="B475" s="6"/>
     </row>
     <row r="476">
-      <c r="A476" s="4"/>
+      <c r="A476" s="7"/>
+      <c r="B476" s="6"/>
     </row>
     <row r="477">
-      <c r="A477" s="4"/>
+      <c r="A477" s="7"/>
+      <c r="B477" s="6"/>
     </row>
     <row r="478">
-      <c r="A478" s="4"/>
+      <c r="A478" s="7"/>
+      <c r="B478" s="6"/>
     </row>
     <row r="479">
-      <c r="A479" s="4"/>
+      <c r="A479" s="7"/>
+      <c r="B479" s="6"/>
     </row>
     <row r="480">
-      <c r="A480" s="4"/>
+      <c r="A480" s="7"/>
+      <c r="B480" s="6"/>
     </row>
     <row r="481">
-      <c r="A481" s="4"/>
+      <c r="A481" s="7"/>
+      <c r="B481" s="6"/>
     </row>
     <row r="482">
-      <c r="A482" s="4"/>
+      <c r="A482" s="7"/>
+      <c r="B482" s="6"/>
     </row>
     <row r="483">
-      <c r="A483" s="4"/>
+      <c r="A483" s="7"/>
+      <c r="B483" s="6"/>
     </row>
     <row r="484">
-      <c r="A484" s="4"/>
+      <c r="A484" s="7"/>
+      <c r="B484" s="6"/>
     </row>
     <row r="485">
-      <c r="A485" s="4"/>
+      <c r="A485" s="7"/>
+      <c r="B485" s="6"/>
     </row>
     <row r="486">
-      <c r="A486" s="4"/>
+      <c r="A486" s="7"/>
+      <c r="B486" s="6"/>
     </row>
     <row r="487">
-      <c r="A487" s="4"/>
+      <c r="A487" s="7"/>
+      <c r="B487" s="6"/>
     </row>
     <row r="488">
-      <c r="A488" s="4"/>
+      <c r="A488" s="7"/>
+      <c r="B488" s="6"/>
     </row>
     <row r="489">
-      <c r="A489" s="4"/>
+      <c r="A489" s="7"/>
+      <c r="B489" s="6"/>
     </row>
     <row r="490">
-      <c r="A490" s="4"/>
+      <c r="A490" s="7"/>
+      <c r="B490" s="6"/>
     </row>
     <row r="491">
-      <c r="A491" s="4"/>
+      <c r="A491" s="7"/>
+      <c r="B491" s="6"/>
     </row>
     <row r="492">
-      <c r="A492" s="4"/>
+      <c r="A492" s="7"/>
+      <c r="B492" s="6"/>
     </row>
     <row r="493">
-      <c r="A493" s="4"/>
+      <c r="A493" s="7"/>
+      <c r="B493" s="6"/>
     </row>
     <row r="494">
-      <c r="A494" s="4"/>
+      <c r="A494" s="7"/>
+      <c r="B494" s="6"/>
     </row>
     <row r="495">
-      <c r="A495" s="4"/>
+      <c r="A495" s="7"/>
+      <c r="B495" s="6"/>
     </row>
     <row r="496">
-      <c r="A496" s="4"/>
+      <c r="A496" s="7"/>
+      <c r="B496" s="6"/>
     </row>
     <row r="497">
-      <c r="A497" s="4"/>
+      <c r="A497" s="7"/>
+      <c r="B497" s="6"/>
     </row>
     <row r="498">
-      <c r="A498" s="4"/>
+      <c r="A498" s="7"/>
+      <c r="B498" s="6"/>
     </row>
     <row r="499">
-      <c r="A499" s="4"/>
+      <c r="A499" s="7"/>
+      <c r="B499" s="6"/>
     </row>
     <row r="500">
-      <c r="A500" s="4"/>
+      <c r="A500" s="7"/>
+      <c r="B500" s="6"/>
     </row>
     <row r="501">
-      <c r="A501" s="4"/>
+      <c r="A501" s="7"/>
+      <c r="B501" s="6"/>
     </row>
     <row r="502">
-      <c r="A502" s="4"/>
+      <c r="A502" s="7"/>
+      <c r="B502" s="6"/>
     </row>
     <row r="503">
-      <c r="A503" s="4"/>
+      <c r="A503" s="7"/>
+      <c r="B503" s="6"/>
     </row>
     <row r="504">
-      <c r="A504" s="4"/>
+      <c r="A504" s="7"/>
+      <c r="B504" s="6"/>
     </row>
     <row r="505">
-      <c r="A505" s="4"/>
+      <c r="A505" s="7"/>
+      <c r="B505" s="6"/>
     </row>
     <row r="506">
-      <c r="A506" s="4"/>
+      <c r="A506" s="7"/>
+      <c r="B506" s="6"/>
     </row>
     <row r="507">
-      <c r="A507" s="4"/>
+      <c r="A507" s="7"/>
+      <c r="B507" s="6"/>
     </row>
     <row r="508">
-      <c r="A508" s="4"/>
+      <c r="A508" s="7"/>
+      <c r="B508" s="6"/>
     </row>
     <row r="509">
-      <c r="A509" s="4"/>
+      <c r="A509" s="7"/>
+      <c r="B509" s="6"/>
     </row>
     <row r="510">
-      <c r="A510" s="4"/>
+      <c r="A510" s="7"/>
+      <c r="B510" s="6"/>
     </row>
     <row r="511">
-      <c r="A511" s="4"/>
+      <c r="A511" s="7"/>
+      <c r="B511" s="6"/>
     </row>
     <row r="512">
-      <c r="A512" s="4"/>
+      <c r="A512" s="7"/>
+      <c r="B512" s="6"/>
     </row>
     <row r="513">
-      <c r="A513" s="4"/>
+      <c r="A513" s="7"/>
+      <c r="B513" s="6"/>
     </row>
     <row r="514">
-      <c r="A514" s="4"/>
+      <c r="A514" s="7"/>
+      <c r="B514" s="6"/>
     </row>
     <row r="515">
-      <c r="A515" s="4"/>
+      <c r="A515" s="7"/>
+      <c r="B515" s="6"/>
     </row>
     <row r="516">
-      <c r="A516" s="4"/>
+      <c r="A516" s="7"/>
+      <c r="B516" s="6"/>
     </row>
     <row r="517">
-      <c r="A517" s="4"/>
+      <c r="A517" s="7"/>
+      <c r="B517" s="6"/>
     </row>
     <row r="518">
-      <c r="A518" s="4"/>
+      <c r="A518" s="7"/>
+      <c r="B518" s="6"/>
     </row>
     <row r="519">
-      <c r="A519" s="4"/>
+      <c r="A519" s="7"/>
+      <c r="B519" s="6"/>
     </row>
     <row r="520">
-      <c r="A520" s="4"/>
+      <c r="A520" s="7"/>
+      <c r="B520" s="6"/>
     </row>
     <row r="521">
-      <c r="A521" s="4"/>
+      <c r="A521" s="7"/>
+      <c r="B521" s="6"/>
     </row>
     <row r="522">
-      <c r="A522" s="4"/>
+      <c r="A522" s="7"/>
+      <c r="B522" s="6"/>
     </row>
     <row r="523">
-      <c r="A523" s="4"/>
+      <c r="A523" s="7"/>
+      <c r="B523" s="6"/>
     </row>
     <row r="524">
-      <c r="A524" s="4"/>
+      <c r="A524" s="7"/>
+      <c r="B524" s="6"/>
     </row>
     <row r="525">
-      <c r="A525" s="4"/>
+      <c r="A525" s="7"/>
+      <c r="B525" s="6"/>
     </row>
     <row r="526">
-      <c r="A526" s="4"/>
+      <c r="A526" s="7"/>
+      <c r="B526" s="6"/>
     </row>
     <row r="527">
-      <c r="A527" s="4"/>
+      <c r="A527" s="7"/>
+      <c r="B527" s="6"/>
     </row>
     <row r="528">
-      <c r="A528" s="4"/>
+      <c r="A528" s="7"/>
+      <c r="B528" s="6"/>
     </row>
     <row r="529">
-      <c r="A529" s="4"/>
+      <c r="A529" s="7"/>
+      <c r="B529" s="6"/>
     </row>
     <row r="530">
-      <c r="A530" s="4"/>
+      <c r="A530" s="7"/>
+      <c r="B530" s="6"/>
     </row>
     <row r="531">
-      <c r="A531" s="4"/>
+      <c r="A531" s="7"/>
+      <c r="B531" s="6"/>
     </row>
     <row r="532">
-      <c r="A532" s="4"/>
+      <c r="A532" s="7"/>
+      <c r="B532" s="6"/>
     </row>
     <row r="533">
-      <c r="A533" s="4"/>
+      <c r="A533" s="7"/>
+      <c r="B533" s="6"/>
     </row>
     <row r="534">
-      <c r="A534" s="4"/>
+      <c r="A534" s="7"/>
+      <c r="B534" s="6"/>
     </row>
     <row r="535">
-      <c r="A535" s="4"/>
+      <c r="A535" s="7"/>
+      <c r="B535" s="6"/>
     </row>
     <row r="536">
-      <c r="A536" s="4"/>
+      <c r="A536" s="7"/>
+      <c r="B536" s="6"/>
     </row>
     <row r="537">
-      <c r="A537" s="4"/>
+      <c r="A537" s="7"/>
+      <c r="B537" s="6"/>
     </row>
     <row r="538">
-      <c r="A538" s="4"/>
+      <c r="A538" s="7"/>
+      <c r="B538" s="6"/>
     </row>
     <row r="539">
-      <c r="A539" s="4"/>
+      <c r="A539" s="7"/>
+      <c r="B539" s="6"/>
     </row>
     <row r="540">
-      <c r="A540" s="4"/>
+      <c r="A540" s="7"/>
+      <c r="B540" s="6"/>
     </row>
     <row r="541">
-      <c r="A541" s="4"/>
+      <c r="A541" s="7"/>
+      <c r="B541" s="6"/>
     </row>
     <row r="542">
-      <c r="A542" s="4"/>
+      <c r="A542" s="7"/>
+      <c r="B542" s="6"/>
     </row>
     <row r="543">
-      <c r="A543" s="4"/>
+      <c r="A543" s="7"/>
+      <c r="B543" s="6"/>
     </row>
     <row r="544">
-      <c r="A544" s="4"/>
+      <c r="A544" s="7"/>
+      <c r="B544" s="6"/>
     </row>
     <row r="545">
-      <c r="A545" s="4"/>
+      <c r="A545" s="7"/>
+      <c r="B545" s="6"/>
     </row>
     <row r="546">
-      <c r="A546" s="4"/>
+      <c r="A546" s="7"/>
+      <c r="B546" s="6"/>
     </row>
     <row r="547">
-      <c r="A547" s="4"/>
+      <c r="A547" s="7"/>
+      <c r="B547" s="6"/>
     </row>
     <row r="548">
-      <c r="A548" s="4"/>
+      <c r="A548" s="7"/>
+      <c r="B548" s="6"/>
     </row>
     <row r="549">
-      <c r="A549" s="4"/>
+      <c r="A549" s="7"/>
+      <c r="B549" s="6"/>
     </row>
     <row r="550">
-      <c r="A550" s="4"/>
+      <c r="A550" s="7"/>
+      <c r="B550" s="6"/>
     </row>
     <row r="551">
-      <c r="A551" s="4"/>
+      <c r="A551" s="7"/>
+      <c r="B551" s="6"/>
     </row>
     <row r="552">
-      <c r="A552" s="4"/>
+      <c r="A552" s="7"/>
+      <c r="B552" s="6"/>
     </row>
     <row r="553">
-      <c r="A553" s="4"/>
+      <c r="A553" s="7"/>
+      <c r="B553" s="6"/>
     </row>
     <row r="554">
-      <c r="A554" s="4"/>
+      <c r="A554" s="7"/>
+      <c r="B554" s="6"/>
     </row>
     <row r="555">
-      <c r="A555" s="4"/>
+      <c r="A555" s="7"/>
+      <c r="B555" s="6"/>
     </row>
     <row r="556">
-      <c r="A556" s="4"/>
+      <c r="A556" s="7"/>
+      <c r="B556" s="6"/>
     </row>
     <row r="557">
-      <c r="A557" s="4"/>
+      <c r="A557" s="7"/>
+      <c r="B557" s="6"/>
     </row>
     <row r="558">
-      <c r="A558" s="4"/>
+      <c r="A558" s="7"/>
+      <c r="B558" s="6"/>
     </row>
     <row r="559">
-      <c r="A559" s="4"/>
+      <c r="A559" s="7"/>
+      <c r="B559" s="6"/>
     </row>
     <row r="560">
-      <c r="A560" s="4"/>
+      <c r="A560" s="7"/>
+      <c r="B560" s="6"/>
     </row>
     <row r="561">
-      <c r="A561" s="4"/>
+      <c r="A561" s="7"/>
+      <c r="B561" s="6"/>
     </row>
     <row r="562">
-      <c r="A562" s="4"/>
+      <c r="A562" s="7"/>
+      <c r="B562" s="6"/>
     </row>
     <row r="563">
-      <c r="A563" s="4"/>
+      <c r="A563" s="7"/>
+      <c r="B563" s="6"/>
     </row>
     <row r="564">
-      <c r="A564" s="4"/>
+      <c r="A564" s="7"/>
+      <c r="B564" s="6"/>
     </row>
     <row r="565">
-      <c r="A565" s="4"/>
+      <c r="A565" s="7"/>
+      <c r="B565" s="6"/>
     </row>
     <row r="566">
-      <c r="A566" s="4"/>
+      <c r="A566" s="7"/>
+      <c r="B566" s="6"/>
     </row>
     <row r="567">
-      <c r="A567" s="4"/>
+      <c r="A567" s="7"/>
+      <c r="B567" s="6"/>
     </row>
     <row r="568">
-      <c r="A568" s="4"/>
+      <c r="A568" s="7"/>
+      <c r="B568" s="6"/>
     </row>
     <row r="569">
-      <c r="A569" s="4"/>
+      <c r="A569" s="7"/>
+      <c r="B569" s="6"/>
     </row>
     <row r="570">
-      <c r="A570" s="4"/>
+      <c r="A570" s="7"/>
+      <c r="B570" s="6"/>
     </row>
     <row r="571">
-      <c r="A571" s="4"/>
+      <c r="A571" s="7"/>
+      <c r="B571" s="6"/>
     </row>
     <row r="572">
-      <c r="A572" s="4"/>
+      <c r="A572" s="7"/>
+      <c r="B572" s="6"/>
     </row>
     <row r="573">
-      <c r="A573" s="4"/>
+      <c r="A573" s="7"/>
+      <c r="B573" s="6"/>
     </row>
     <row r="574">
-      <c r="A574" s="4"/>
+      <c r="A574" s="7"/>
+      <c r="B574" s="6"/>
     </row>
     <row r="575">
-      <c r="A575" s="4"/>
+      <c r="A575" s="7"/>
+      <c r="B575" s="6"/>
     </row>
     <row r="576">
-      <c r="A576" s="4"/>
+      <c r="A576" s="7"/>
+      <c r="B576" s="6"/>
     </row>
     <row r="577">
-      <c r="A577" s="4"/>
+      <c r="A577" s="7"/>
+      <c r="B577" s="6"/>
     </row>
     <row r="578">
-      <c r="A578" s="4"/>
+      <c r="A578" s="7"/>
+      <c r="B578" s="6"/>
     </row>
     <row r="579">
-      <c r="A579" s="4"/>
+      <c r="A579" s="7"/>
+      <c r="B579" s="6"/>
     </row>
     <row r="580">
-      <c r="A580" s="4"/>
+      <c r="A580" s="7"/>
+      <c r="B580" s="6"/>
     </row>
     <row r="581">
-      <c r="A581" s="4"/>
+      <c r="A581" s="7"/>
+      <c r="B581" s="6"/>
     </row>
     <row r="582">
-      <c r="A582" s="4"/>
+      <c r="A582" s="7"/>
+      <c r="B582" s="6"/>
     </row>
     <row r="583">
-      <c r="A583" s="4"/>
+      <c r="A583" s="7"/>
+      <c r="B583" s="6"/>
     </row>
     <row r="584">
-      <c r="A584" s="4"/>
+      <c r="A584" s="7"/>
+      <c r="B584" s="6"/>
     </row>
     <row r="585">
-      <c r="A585" s="4"/>
+      <c r="A585" s="7"/>
+      <c r="B585" s="6"/>
     </row>
     <row r="586">
-      <c r="A586" s="4"/>
+      <c r="A586" s="7"/>
+      <c r="B586" s="6"/>
     </row>
     <row r="587">
-      <c r="A587" s="4"/>
+      <c r="A587" s="7"/>
+      <c r="B587" s="6"/>
     </row>
     <row r="588">
-      <c r="A588" s="4"/>
+      <c r="A588" s="7"/>
+      <c r="B588" s="6"/>
     </row>
     <row r="589">
-      <c r="A589" s="4"/>
+      <c r="A589" s="7"/>
+      <c r="B589" s="6"/>
     </row>
     <row r="590">
-      <c r="A590" s="4"/>
+      <c r="A590" s="7"/>
+      <c r="B590" s="6"/>
     </row>
     <row r="591">
-      <c r="A591" s="4"/>
+      <c r="A591" s="7"/>
+      <c r="B591" s="6"/>
     </row>
     <row r="592">
-      <c r="A592" s="4"/>
+      <c r="A592" s="7"/>
+      <c r="B592" s="6"/>
     </row>
     <row r="593">
-      <c r="A593" s="4"/>
+      <c r="A593" s="7"/>
+      <c r="B593" s="6"/>
     </row>
     <row r="594">
-      <c r="A594" s="4"/>
+      <c r="A594" s="7"/>
+      <c r="B594" s="6"/>
     </row>
     <row r="595">
-      <c r="A595" s="4"/>
+      <c r="A595" s="7"/>
+      <c r="B595" s="6"/>
     </row>
     <row r="596">
-      <c r="A596" s="4"/>
+      <c r="A596" s="7"/>
+      <c r="B596" s="6"/>
     </row>
     <row r="597">
-      <c r="A597" s="4"/>
+      <c r="A597" s="7"/>
+      <c r="B597" s="6"/>
     </row>
     <row r="598">
-      <c r="A598" s="4"/>
+      <c r="A598" s="7"/>
+      <c r="B598" s="6"/>
     </row>
     <row r="599">
-      <c r="A599" s="4"/>
+      <c r="A599" s="7"/>
+      <c r="B599" s="6"/>
     </row>
     <row r="600">
-      <c r="A600" s="4"/>
+      <c r="A600" s="7"/>
+      <c r="B600" s="6"/>
     </row>
     <row r="601">
-      <c r="A601" s="4"/>
+      <c r="A601" s="7"/>
+      <c r="B601" s="6"/>
     </row>
     <row r="602">
-      <c r="A602" s="4"/>
+      <c r="A602" s="7"/>
+      <c r="B602" s="6"/>
     </row>
     <row r="603">
-      <c r="A603" s="4"/>
+      <c r="A603" s="7"/>
+      <c r="B603" s="6"/>
     </row>
     <row r="604">
-      <c r="A604" s="4"/>
+      <c r="A604" s="7"/>
+      <c r="B604" s="6"/>
     </row>
     <row r="605">
-      <c r="A605" s="4"/>
+      <c r="A605" s="7"/>
+      <c r="B605" s="6"/>
     </row>
     <row r="606">
-      <c r="A606" s="4"/>
+      <c r="A606" s="7"/>
+      <c r="B606" s="6"/>
     </row>
     <row r="607">
-      <c r="A607" s="4"/>
+      <c r="A607" s="7"/>
+      <c r="B607" s="6"/>
     </row>
     <row r="608">
-      <c r="A608" s="4"/>
+      <c r="A608" s="7"/>
+      <c r="B608" s="6"/>
     </row>
     <row r="609">
-      <c r="A609" s="4"/>
+      <c r="A609" s="7"/>
+      <c r="B609" s="6"/>
     </row>
     <row r="610">
-      <c r="A610" s="4"/>
+      <c r="A610" s="7"/>
+      <c r="B610" s="6"/>
     </row>
     <row r="611">
-      <c r="A611" s="4"/>
+      <c r="A611" s="7"/>
+      <c r="B611" s="6"/>
     </row>
     <row r="612">
-      <c r="A612" s="4"/>
+      <c r="A612" s="7"/>
+      <c r="B612" s="6"/>
     </row>
     <row r="613">
-      <c r="A613" s="4"/>
+      <c r="A613" s="7"/>
+      <c r="B613" s="6"/>
     </row>
     <row r="614">
-      <c r="A614" s="4"/>
+      <c r="A614" s="7"/>
+      <c r="B614" s="6"/>
     </row>
     <row r="615">
-      <c r="A615" s="4"/>
+      <c r="A615" s="7"/>
+      <c r="B615" s="6"/>
     </row>
     <row r="616">
-      <c r="A616" s="4"/>
+      <c r="A616" s="7"/>
+      <c r="B616" s="6"/>
     </row>
     <row r="617">
-      <c r="A617" s="4"/>
+      <c r="A617" s="7"/>
+      <c r="B617" s="6"/>
     </row>
     <row r="618">
-      <c r="A618" s="4"/>
+      <c r="A618" s="7"/>
+      <c r="B618" s="6"/>
     </row>
     <row r="619">
-      <c r="A619" s="4"/>
+      <c r="A619" s="7"/>
+      <c r="B619" s="6"/>
     </row>
     <row r="620">
-      <c r="A620" s="4"/>
+      <c r="A620" s="7"/>
+      <c r="B620" s="6"/>
     </row>
     <row r="621">
-      <c r="A621" s="4"/>
+      <c r="A621" s="7"/>
+      <c r="B621" s="6"/>
     </row>
     <row r="622">
-      <c r="A622" s="4"/>
+      <c r="A622" s="7"/>
+      <c r="B622" s="6"/>
     </row>
     <row r="623">
-      <c r="A623" s="4"/>
+      <c r="A623" s="7"/>
+      <c r="B623" s="6"/>
     </row>
     <row r="624">
-      <c r="A624" s="4"/>
+      <c r="A624" s="7"/>
+      <c r="B624" s="6"/>
     </row>
     <row r="625">
-      <c r="A625" s="4"/>
+      <c r="A625" s="7"/>
+      <c r="B625" s="6"/>
     </row>
     <row r="626">
-      <c r="A626" s="4"/>
+      <c r="A626" s="7"/>
+      <c r="B626" s="6"/>
     </row>
     <row r="627">
-      <c r="A627" s="4"/>
+      <c r="A627" s="7"/>
+      <c r="B627" s="6"/>
     </row>
     <row r="628">
-      <c r="A628" s="4"/>
+      <c r="A628" s="7"/>
+      <c r="B628" s="6"/>
     </row>
     <row r="629">
-      <c r="A629" s="4"/>
+      <c r="A629" s="7"/>
+      <c r="B629" s="6"/>
     </row>
     <row r="630">
-      <c r="A630" s="4"/>
+      <c r="A630" s="7"/>
+      <c r="B630" s="6"/>
     </row>
     <row r="631">
-      <c r="A631" s="4"/>
+      <c r="A631" s="7"/>
+      <c r="B631" s="6"/>
     </row>
     <row r="632">
-      <c r="A632" s="4"/>
+      <c r="A632" s="7"/>
+      <c r="B632" s="6"/>
     </row>
     <row r="633">
-      <c r="A633" s="4"/>
+      <c r="A633" s="7"/>
+      <c r="B633" s="6"/>
     </row>
     <row r="634">
-      <c r="A634" s="4"/>
+      <c r="A634" s="7"/>
+      <c r="B634" s="6"/>
     </row>
     <row r="635">
-      <c r="A635" s="4"/>
+      <c r="A635" s="7"/>
+      <c r="B635" s="6"/>
     </row>
     <row r="636">
-      <c r="A636" s="4"/>
+      <c r="A636" s="7"/>
+      <c r="B636" s="6"/>
     </row>
     <row r="637">
-      <c r="A637" s="4"/>
+      <c r="A637" s="7"/>
+      <c r="B637" s="6"/>
     </row>
     <row r="638">
-      <c r="A638" s="4"/>
+      <c r="A638" s="7"/>
+      <c r="B638" s="6"/>
     </row>
     <row r="639">
-      <c r="A639" s="4"/>
+      <c r="A639" s="7"/>
+      <c r="B639" s="6"/>
     </row>
     <row r="640">
-      <c r="A640" s="4"/>
+      <c r="A640" s="7"/>
+      <c r="B640" s="6"/>
     </row>
     <row r="641">
-      <c r="A641" s="4"/>
+      <c r="A641" s="7"/>
+      <c r="B641" s="6"/>
     </row>
     <row r="642">
-      <c r="A642" s="4"/>
+      <c r="A642" s="7"/>
+      <c r="B642" s="6"/>
     </row>
     <row r="643">
-      <c r="A643" s="4"/>
+      <c r="A643" s="7"/>
+      <c r="B643" s="6"/>
     </row>
     <row r="644">
-      <c r="A644" s="4"/>
+      <c r="A644" s="7"/>
+      <c r="B644" s="6"/>
     </row>
     <row r="645">
-      <c r="A645" s="4"/>
+      <c r="A645" s="7"/>
+      <c r="B645" s="6"/>
     </row>
     <row r="646">
-      <c r="A646" s="4"/>
+      <c r="A646" s="7"/>
+      <c r="B646" s="6"/>
     </row>
     <row r="647">
-      <c r="A647" s="4"/>
+      <c r="A647" s="7"/>
+      <c r="B647" s="6"/>
     </row>
     <row r="648">
-      <c r="A648" s="4"/>
+      <c r="A648" s="7"/>
+      <c r="B648" s="6"/>
     </row>
     <row r="649">
-      <c r="A649" s="4"/>
+      <c r="A649" s="7"/>
+      <c r="B649" s="6"/>
     </row>
     <row r="650">
-      <c r="A650" s="4"/>
+      <c r="A650" s="7"/>
+      <c r="B650" s="6"/>
     </row>
     <row r="651">
-      <c r="A651" s="4"/>
+      <c r="A651" s="7"/>
+      <c r="B651" s="6"/>
     </row>
     <row r="652">
-      <c r="A652" s="4"/>
+      <c r="A652" s="7"/>
+      <c r="B652" s="6"/>
     </row>
     <row r="653">
-      <c r="A653" s="4"/>
+      <c r="A653" s="7"/>
+      <c r="B653" s="6"/>
     </row>
     <row r="654">
-      <c r="A654" s="4"/>
+      <c r="A654" s="7"/>
+      <c r="B654" s="6"/>
     </row>
     <row r="655">
-      <c r="A655" s="4"/>
+      <c r="A655" s="7"/>
+      <c r="B655" s="6"/>
     </row>
     <row r="656">
-      <c r="A656" s="4"/>
+      <c r="A656" s="7"/>
+      <c r="B656" s="6"/>
     </row>
     <row r="657">
-      <c r="A657" s="4"/>
+      <c r="A657" s="7"/>
+      <c r="B657" s="6"/>
     </row>
     <row r="658">
-      <c r="A658" s="4"/>
+      <c r="A658" s="7"/>
+      <c r="B658" s="6"/>
     </row>
     <row r="659">
-      <c r="A659" s="4"/>
+      <c r="A659" s="7"/>
+      <c r="B659" s="6"/>
     </row>
     <row r="660">
-      <c r="A660" s="4"/>
+      <c r="A660" s="7"/>
+      <c r="B660" s="6"/>
     </row>
     <row r="661">
-      <c r="A661" s="4"/>
+      <c r="A661" s="7"/>
+      <c r="B661" s="6"/>
     </row>
     <row r="662">
-      <c r="A662" s="4"/>
+      <c r="A662" s="7"/>
+      <c r="B662" s="6"/>
     </row>
     <row r="663">
-      <c r="A663" s="4"/>
+      <c r="A663" s="7"/>
+      <c r="B663" s="6"/>
     </row>
     <row r="664">
-      <c r="A664" s="4"/>
+      <c r="A664" s="7"/>
+      <c r="B664" s="6"/>
     </row>
     <row r="665">
-      <c r="A665" s="4"/>
+      <c r="A665" s="7"/>
+      <c r="B665" s="6"/>
     </row>
     <row r="666">
-      <c r="A666" s="4"/>
+      <c r="A666" s="7"/>
+      <c r="B666" s="6"/>
     </row>
     <row r="667">
-      <c r="A667" s="4"/>
+      <c r="A667" s="7"/>
+      <c r="B667" s="6"/>
     </row>
     <row r="668">
-      <c r="A668" s="4"/>
+      <c r="A668" s="7"/>
+      <c r="B668" s="6"/>
     </row>
     <row r="669">
-      <c r="A669" s="4"/>
+      <c r="A669" s="7"/>
+      <c r="B669" s="6"/>
     </row>
     <row r="670">
-      <c r="A670" s="4"/>
+      <c r="A670" s="7"/>
+      <c r="B670" s="6"/>
     </row>
     <row r="671">
-      <c r="A671" s="4"/>
+      <c r="A671" s="7"/>
+      <c r="B671" s="6"/>
     </row>
     <row r="672">
-      <c r="A672" s="4"/>
+      <c r="A672" s="7"/>
+      <c r="B672" s="6"/>
     </row>
     <row r="673">
-      <c r="A673" s="4"/>
+      <c r="A673" s="7"/>
+      <c r="B673" s="6"/>
     </row>
     <row r="674">
-      <c r="A674" s="4"/>
+      <c r="A674" s="7"/>
+      <c r="B674" s="6"/>
     </row>
     <row r="675">
-      <c r="A675" s="4"/>
+      <c r="A675" s="7"/>
+      <c r="B675" s="6"/>
     </row>
     <row r="676">
-      <c r="A676" s="4"/>
+      <c r="A676" s="7"/>
+      <c r="B676" s="6"/>
     </row>
     <row r="677">
-      <c r="A677" s="4"/>
+      <c r="A677" s="7"/>
+      <c r="B677" s="6"/>
     </row>
     <row r="678">
-      <c r="A678" s="4"/>
+      <c r="A678" s="7"/>
+      <c r="B678" s="6"/>
     </row>
     <row r="679">
-      <c r="A679" s="4"/>
+      <c r="A679" s="7"/>
+      <c r="B679" s="6"/>
     </row>
     <row r="680">
-      <c r="A680" s="4"/>
+      <c r="A680" s="7"/>
+      <c r="B680" s="6"/>
     </row>
     <row r="681">
-      <c r="A681" s="4"/>
+      <c r="A681" s="7"/>
+      <c r="B681" s="6"/>
     </row>
     <row r="682">
-      <c r="A682" s="4"/>
+      <c r="A682" s="7"/>
+      <c r="B682" s="6"/>
     </row>
     <row r="683">
-      <c r="A683" s="4"/>
+      <c r="A683" s="7"/>
+      <c r="B683" s="6"/>
     </row>
     <row r="684">
-      <c r="A684" s="4"/>
+      <c r="A684" s="7"/>
+      <c r="B684" s="6"/>
     </row>
     <row r="685">
-      <c r="A685" s="4"/>
+      <c r="A685" s="7"/>
+      <c r="B685" s="6"/>
     </row>
     <row r="686">
-      <c r="A686" s="4"/>
+      <c r="A686" s="7"/>
+      <c r="B686" s="6"/>
     </row>
     <row r="687">
-      <c r="A687" s="4"/>
+      <c r="A687" s="7"/>
+      <c r="B687" s="6"/>
     </row>
     <row r="688">
-      <c r="A688" s="4"/>
+      <c r="A688" s="7"/>
+      <c r="B688" s="6"/>
     </row>
     <row r="689">
-      <c r="A689" s="4"/>
+      <c r="A689" s="7"/>
+      <c r="B689" s="6"/>
     </row>
     <row r="690">
-      <c r="A690" s="4"/>
+      <c r="A690" s="7"/>
+      <c r="B690" s="6"/>
     </row>
     <row r="691">
-      <c r="A691" s="4"/>
+      <c r="A691" s="7"/>
+      <c r="B691" s="6"/>
     </row>
     <row r="692">
-      <c r="A692" s="4"/>
+      <c r="A692" s="7"/>
+      <c r="B692" s="6"/>
     </row>
     <row r="693">
-      <c r="A693" s="4"/>
+      <c r="A693" s="7"/>
+      <c r="B693" s="6"/>
     </row>
     <row r="694">
-      <c r="A694" s="4"/>
+      <c r="A694" s="7"/>
+      <c r="B694" s="6"/>
     </row>
     <row r="695">
-      <c r="A695" s="4"/>
+      <c r="A695" s="7"/>
+      <c r="B695" s="6"/>
     </row>
     <row r="696">
-      <c r="A696" s="4"/>
+      <c r="A696" s="7"/>
+      <c r="B696" s="6"/>
     </row>
     <row r="697">
-      <c r="A697" s="4"/>
+      <c r="A697" s="7"/>
+      <c r="B697" s="6"/>
     </row>
     <row r="698">
-      <c r="A698" s="4"/>
+      <c r="A698" s="7"/>
+      <c r="B698" s="6"/>
     </row>
     <row r="699">
-      <c r="A699" s="4"/>
+      <c r="A699" s="7"/>
+      <c r="B699" s="6"/>
     </row>
     <row r="700">
-      <c r="A700" s="4"/>
+      <c r="A700" s="7"/>
+      <c r="B700" s="6"/>
     </row>
     <row r="701">
-      <c r="A701" s="4"/>
+      <c r="A701" s="7"/>
+      <c r="B701" s="6"/>
     </row>
     <row r="702">
-      <c r="A702" s="4"/>
+      <c r="A702" s="7"/>
+      <c r="B702" s="6"/>
     </row>
     <row r="703">
-      <c r="A703" s="4"/>
+      <c r="A703" s="7"/>
+      <c r="B703" s="6"/>
     </row>
     <row r="704">
-      <c r="A704" s="4"/>
+      <c r="A704" s="7"/>
+      <c r="B704" s="6"/>
     </row>
     <row r="705">
-      <c r="A705" s="4"/>
+      <c r="A705" s="7"/>
+      <c r="B705" s="6"/>
     </row>
     <row r="706">
-      <c r="A706" s="4"/>
+      <c r="A706" s="7"/>
+      <c r="B706" s="6"/>
     </row>
     <row r="707">
-      <c r="A707" s="4"/>
+      <c r="A707" s="7"/>
+      <c r="B707" s="6"/>
     </row>
     <row r="708">
-      <c r="A708" s="4"/>
+      <c r="A708" s="7"/>
+      <c r="B708" s="6"/>
     </row>
     <row r="709">
-      <c r="A709" s="4"/>
+      <c r="A709" s="7"/>
+      <c r="B709" s="6"/>
     </row>
     <row r="710">
-      <c r="A710" s="4"/>
+      <c r="A710" s="7"/>
+      <c r="B710" s="6"/>
     </row>
     <row r="711">
-      <c r="A711" s="4"/>
+      <c r="A711" s="7"/>
+      <c r="B711" s="6"/>
     </row>
     <row r="712">
-      <c r="A712" s="4"/>
+      <c r="A712" s="7"/>
+      <c r="B712" s="6"/>
     </row>
     <row r="713">
-      <c r="A713" s="4"/>
+      <c r="A713" s="7"/>
+      <c r="B713" s="6"/>
     </row>
     <row r="714">
-      <c r="A714" s="4"/>
+      <c r="A714" s="7"/>
+      <c r="B714" s="6"/>
     </row>
     <row r="715">
-      <c r="A715" s="4"/>
+      <c r="A715" s="7"/>
+      <c r="B715" s="6"/>
     </row>
     <row r="716">
-      <c r="A716" s="4"/>
+      <c r="A716" s="7"/>
+      <c r="B716" s="6"/>
     </row>
     <row r="717">
-      <c r="A717" s="4"/>
+      <c r="A717" s="7"/>
+      <c r="B717" s="6"/>
     </row>
     <row r="718">
-      <c r="A718" s="4"/>
+      <c r="A718" s="7"/>
+      <c r="B718" s="6"/>
     </row>
     <row r="719">
-      <c r="A719" s="4"/>
+      <c r="A719" s="7"/>
+      <c r="B719" s="6"/>
     </row>
     <row r="720">
-      <c r="A720" s="4"/>
+      <c r="A720" s="7"/>
+      <c r="B720" s="6"/>
     </row>
     <row r="721">
-      <c r="A721" s="4"/>
+      <c r="A721" s="7"/>
+      <c r="B721" s="6"/>
     </row>
     <row r="722">
-      <c r="A722" s="4"/>
+      <c r="A722" s="7"/>
+      <c r="B722" s="6"/>
     </row>
     <row r="723">
-      <c r="A723" s="4"/>
+      <c r="A723" s="7"/>
+      <c r="B723" s="6"/>
     </row>
     <row r="724">
-      <c r="A724" s="4"/>
+      <c r="A724" s="7"/>
+      <c r="B724" s="6"/>
     </row>
     <row r="725">
-      <c r="A725" s="4"/>
+      <c r="A725" s="7"/>
+      <c r="B725" s="6"/>
     </row>
     <row r="726">
-      <c r="A726" s="4"/>
+      <c r="A726" s="7"/>
+      <c r="B726" s="6"/>
     </row>
     <row r="727">
-      <c r="A727" s="4"/>
+      <c r="A727" s="7"/>
+      <c r="B727" s="6"/>
     </row>
     <row r="728">
-      <c r="A728" s="4"/>
+      <c r="A728" s="7"/>
+      <c r="B728" s="6"/>
     </row>
     <row r="729">
-      <c r="A729" s="4"/>
+      <c r="A729" s="7"/>
+      <c r="B729" s="6"/>
     </row>
     <row r="730">
-      <c r="A730" s="4"/>
+      <c r="A730" s="7"/>
+      <c r="B730" s="6"/>
     </row>
     <row r="731">
-      <c r="A731" s="4"/>
+      <c r="A731" s="7"/>
+      <c r="B731" s="6"/>
     </row>
     <row r="732">
-      <c r="A732" s="4"/>
+      <c r="A732" s="7"/>
+      <c r="B732" s="6"/>
     </row>
     <row r="733">
-      <c r="A733" s="4"/>
+      <c r="A733" s="7"/>
+      <c r="B733" s="6"/>
     </row>
     <row r="734">
-      <c r="A734" s="4"/>
+      <c r="A734" s="7"/>
+      <c r="B734" s="6"/>
     </row>
     <row r="735">
-      <c r="A735" s="4"/>
+      <c r="A735" s="7"/>
+      <c r="B735" s="6"/>
     </row>
     <row r="736">
-      <c r="A736" s="4"/>
+      <c r="A736" s="7"/>
+      <c r="B736" s="6"/>
     </row>
     <row r="737">
-      <c r="A737" s="4"/>
+      <c r="A737" s="7"/>
+      <c r="B737" s="6"/>
     </row>
     <row r="738">
-      <c r="A738" s="4"/>
+      <c r="A738" s="7"/>
+      <c r="B738" s="6"/>
     </row>
     <row r="739">
-      <c r="A739" s="4"/>
+      <c r="A739" s="7"/>
+      <c r="B739" s="6"/>
     </row>
     <row r="740">
-      <c r="A740" s="4"/>
+      <c r="A740" s="7"/>
+      <c r="B740" s="6"/>
     </row>
     <row r="741">
-      <c r="A741" s="4"/>
+      <c r="A741" s="7"/>
+      <c r="B741" s="6"/>
     </row>
     <row r="742">
-      <c r="A742" s="4"/>
+      <c r="A742" s="7"/>
+      <c r="B742" s="6"/>
     </row>
     <row r="743">
-      <c r="A743" s="4"/>
+      <c r="A743" s="7"/>
+      <c r="B743" s="6"/>
     </row>
     <row r="744">
-      <c r="A744" s="4"/>
+      <c r="A744" s="7"/>
+      <c r="B744" s="6"/>
     </row>
     <row r="745">
-      <c r="A745" s="4"/>
+      <c r="A745" s="7"/>
+      <c r="B745" s="6"/>
     </row>
     <row r="746">
-      <c r="A746" s="4"/>
+      <c r="A746" s="7"/>
+      <c r="B746" s="6"/>
     </row>
     <row r="747">
-      <c r="A747" s="4"/>
+      <c r="A747" s="7"/>
+      <c r="B747" s="6"/>
     </row>
     <row r="748">
-      <c r="A748" s="4"/>
+      <c r="A748" s="7"/>
+      <c r="B748" s="6"/>
     </row>
     <row r="749">
-      <c r="A749" s="4"/>
+      <c r="A749" s="7"/>
+      <c r="B749" s="6"/>
     </row>
     <row r="750">
-      <c r="A750" s="4"/>
+      <c r="A750" s="7"/>
+      <c r="B750" s="6"/>
     </row>
     <row r="751">
-      <c r="A751" s="4"/>
+      <c r="A751" s="7"/>
+      <c r="B751" s="6"/>
     </row>
     <row r="752">
-      <c r="A752" s="4"/>
+      <c r="A752" s="7"/>
+      <c r="B752" s="6"/>
     </row>
     <row r="753">
-      <c r="A753" s="4"/>
+      <c r="A753" s="7"/>
+      <c r="B753" s="6"/>
     </row>
     <row r="754">
-      <c r="A754" s="4"/>
+      <c r="A754" s="7"/>
+      <c r="B754" s="6"/>
     </row>
     <row r="755">
-      <c r="A755" s="4"/>
+      <c r="A755" s="7"/>
+      <c r="B755" s="6"/>
     </row>
     <row r="756">
-      <c r="A756" s="4"/>
+      <c r="A756" s="7"/>
+      <c r="B756" s="6"/>
     </row>
     <row r="757">
-      <c r="A757" s="4"/>
+      <c r="A757" s="7"/>
+      <c r="B757" s="6"/>
     </row>
     <row r="758">
-      <c r="A758" s="4"/>
+      <c r="A758" s="7"/>
+      <c r="B758" s="6"/>
     </row>
     <row r="759">
-      <c r="A759" s="4"/>
+      <c r="A759" s="7"/>
+      <c r="B759" s="6"/>
     </row>
     <row r="760">
-      <c r="A760" s="4"/>
+      <c r="A760" s="7"/>
+      <c r="B760" s="6"/>
     </row>
     <row r="761">
-      <c r="A761" s="4"/>
+      <c r="A761" s="7"/>
+      <c r="B761" s="6"/>
     </row>
     <row r="762">
-      <c r="A762" s="4"/>
+      <c r="A762" s="7"/>
+      <c r="B762" s="6"/>
     </row>
     <row r="763">
-      <c r="A763" s="4"/>
+      <c r="A763" s="7"/>
+      <c r="B763" s="6"/>
     </row>
     <row r="764">
-      <c r="A764" s="4"/>
+      <c r="A764" s="7"/>
+      <c r="B764" s="6"/>
     </row>
     <row r="765">
-      <c r="A765" s="4"/>
+      <c r="A765" s="7"/>
+      <c r="B765" s="6"/>
     </row>
     <row r="766">
-      <c r="A766" s="4"/>
+      <c r="A766" s="7"/>
+      <c r="B766" s="6"/>
     </row>
     <row r="767">
-      <c r="A767" s="4"/>
+      <c r="A767" s="7"/>
+      <c r="B767" s="6"/>
     </row>
     <row r="768">
-      <c r="A768" s="4"/>
+      <c r="A768" s="7"/>
+      <c r="B768" s="6"/>
     </row>
     <row r="769">
-      <c r="A769" s="4"/>
+      <c r="A769" s="7"/>
+      <c r="B769" s="6"/>
     </row>
     <row r="770">
-      <c r="A770" s="4"/>
+      <c r="A770" s="7"/>
+      <c r="B770" s="6"/>
     </row>
     <row r="771">
-      <c r="A771" s="4"/>
+      <c r="A771" s="7"/>
+      <c r="B771" s="6"/>
     </row>
     <row r="772">
-      <c r="A772" s="4"/>
+      <c r="A772" s="7"/>
+      <c r="B772" s="6"/>
     </row>
     <row r="773">
-      <c r="A773" s="4"/>
+      <c r="A773" s="7"/>
+      <c r="B773" s="6"/>
     </row>
     <row r="774">
-      <c r="A774" s="4"/>
+      <c r="A774" s="7"/>
+      <c r="B774" s="6"/>
     </row>
     <row r="775">
-      <c r="A775" s="4"/>
+      <c r="A775" s="7"/>
+      <c r="B775" s="6"/>
     </row>
     <row r="776">
-      <c r="A776" s="4"/>
+      <c r="A776" s="7"/>
+      <c r="B776" s="6"/>
     </row>
     <row r="777">
-      <c r="A777" s="4"/>
+      <c r="A777" s="7"/>
+      <c r="B777" s="6"/>
     </row>
     <row r="778">
-      <c r="A778" s="4"/>
+      <c r="A778" s="7"/>
+      <c r="B778" s="6"/>
     </row>
     <row r="779">
-      <c r="A779" s="4"/>
+      <c r="A779" s="7"/>
+      <c r="B779" s="6"/>
     </row>
     <row r="780">
-      <c r="A780" s="4"/>
+      <c r="A780" s="7"/>
+      <c r="B780" s="6"/>
     </row>
     <row r="781">
-      <c r="A781" s="4"/>
+      <c r="A781" s="7"/>
+      <c r="B781" s="6"/>
     </row>
     <row r="782">
-      <c r="A782" s="4"/>
+      <c r="A782" s="7"/>
+      <c r="B782" s="6"/>
     </row>
     <row r="783">
-      <c r="A783" s="4"/>
+      <c r="A783" s="7"/>
+      <c r="B783" s="6"/>
     </row>
     <row r="784">
-      <c r="A784" s="4"/>
+      <c r="A784" s="7"/>
+      <c r="B784" s="6"/>
     </row>
     <row r="785">
-      <c r="A785" s="4"/>
+      <c r="A785" s="7"/>
+      <c r="B785" s="6"/>
     </row>
     <row r="786">
-      <c r="A786" s="4"/>
+      <c r="A786" s="7"/>
+      <c r="B786" s="6"/>
     </row>
     <row r="787">
-      <c r="A787" s="4"/>
+      <c r="A787" s="7"/>
+      <c r="B787" s="6"/>
     </row>
     <row r="788">
-      <c r="A788" s="4"/>
+      <c r="A788" s="7"/>
+      <c r="B788" s="6"/>
     </row>
     <row r="789">
-      <c r="A789" s="4"/>
+      <c r="A789" s="7"/>
+      <c r="B789" s="6"/>
     </row>
     <row r="790">
-      <c r="A790" s="4"/>
+      <c r="A790" s="7"/>
+      <c r="B790" s="6"/>
     </row>
     <row r="791">
-      <c r="A791" s="4"/>
+      <c r="A791" s="7"/>
+      <c r="B791" s="6"/>
     </row>
     <row r="792">
-      <c r="A792" s="4"/>
+      <c r="A792" s="7"/>
+      <c r="B792" s="6"/>
     </row>
     <row r="793">
-      <c r="A793" s="4"/>
+      <c r="A793" s="7"/>
+      <c r="B793" s="6"/>
     </row>
     <row r="794">
-      <c r="A794" s="4"/>
+      <c r="A794" s="7"/>
+      <c r="B794" s="6"/>
     </row>
     <row r="795">
-      <c r="A795" s="4"/>
+      <c r="A795" s="7"/>
+      <c r="B795" s="6"/>
     </row>
     <row r="796">
-      <c r="A796" s="4"/>
+      <c r="A796" s="7"/>
+      <c r="B796" s="6"/>
     </row>
     <row r="797">
-      <c r="A797" s="4"/>
+      <c r="A797" s="7"/>
+      <c r="B797" s="6"/>
     </row>
     <row r="798">
-      <c r="A798" s="4"/>
+      <c r="A798" s="7"/>
+      <c r="B798" s="6"/>
     </row>
     <row r="799">
-      <c r="A799" s="4"/>
+      <c r="A799" s="7"/>
+      <c r="B799" s="6"/>
     </row>
     <row r="800">
-      <c r="A800" s="4"/>
+      <c r="A800" s="7"/>
+      <c r="B800" s="6"/>
     </row>
     <row r="801">
-      <c r="A801" s="4"/>
+      <c r="A801" s="7"/>
+      <c r="B801" s="6"/>
     </row>
     <row r="802">
-      <c r="A802" s="4"/>
+      <c r="A802" s="7"/>
+      <c r="B802" s="6"/>
     </row>
     <row r="803">
-      <c r="A803" s="4"/>
+      <c r="A803" s="7"/>
+      <c r="B803" s="6"/>
     </row>
     <row r="804">
-      <c r="A804" s="4"/>
+      <c r="A804" s="7"/>
+      <c r="B804" s="6"/>
     </row>
     <row r="805">
-      <c r="A805" s="4"/>
+      <c r="A805" s="7"/>
+      <c r="B805" s="6"/>
     </row>
     <row r="806">
-      <c r="A806" s="4"/>
+      <c r="A806" s="7"/>
+      <c r="B806" s="6"/>
     </row>
     <row r="807">
-      <c r="A807" s="4"/>
+      <c r="A807" s="7"/>
+      <c r="B807" s="6"/>
     </row>
     <row r="808">
-      <c r="A808" s="4"/>
+      <c r="A808" s="7"/>
+      <c r="B808" s="6"/>
     </row>
     <row r="809">
-      <c r="A809" s="4"/>
+      <c r="A809" s="7"/>
+      <c r="B809" s="6"/>
     </row>
     <row r="810">
-      <c r="A810" s="4"/>
+      <c r="A810" s="7"/>
+      <c r="B810" s="6"/>
     </row>
     <row r="811">
-      <c r="A811" s="4"/>
+      <c r="A811" s="7"/>
+      <c r="B811" s="6"/>
     </row>
     <row r="812">
-      <c r="A812" s="4"/>
+      <c r="A812" s="7"/>
+      <c r="B812" s="6"/>
     </row>
     <row r="813">
-      <c r="A813" s="4"/>
+      <c r="A813" s="7"/>
+      <c r="B813" s="6"/>
     </row>
     <row r="814">
-      <c r="A814" s="4"/>
+      <c r="A814" s="7"/>
+      <c r="B814" s="6"/>
     </row>
     <row r="815">
-      <c r="A815" s="4"/>
+      <c r="A815" s="7"/>
+      <c r="B815" s="6"/>
     </row>
     <row r="816">
-      <c r="A816" s="4"/>
+      <c r="A816" s="7"/>
+      <c r="B816" s="6"/>
     </row>
     <row r="817">
-      <c r="A817" s="4"/>
+      <c r="A817" s="7"/>
+      <c r="B817" s="6"/>
     </row>
     <row r="818">
-      <c r="A818" s="4"/>
+      <c r="A818" s="7"/>
+      <c r="B818" s="6"/>
     </row>
     <row r="819">
-      <c r="A819" s="4"/>
+      <c r="A819" s="7"/>
+      <c r="B819" s="6"/>
     </row>
     <row r="820">
-      <c r="A820" s="4"/>
+      <c r="A820" s="7"/>
+      <c r="B820" s="6"/>
     </row>
     <row r="821">
-      <c r="A821" s="4"/>
+      <c r="A821" s="7"/>
+      <c r="B821" s="6"/>
     </row>
     <row r="822">
-      <c r="A822" s="4"/>
+      <c r="A822" s="7"/>
+      <c r="B822" s="6"/>
     </row>
     <row r="823">
-      <c r="A823" s="4"/>
+      <c r="A823" s="7"/>
+      <c r="B823" s="6"/>
     </row>
     <row r="824">
-      <c r="A824" s="4"/>
+      <c r="A824" s="7"/>
+      <c r="B824" s="6"/>
     </row>
     <row r="825">
-      <c r="A825" s="4"/>
+      <c r="A825" s="7"/>
+      <c r="B825" s="6"/>
     </row>
     <row r="826">
-      <c r="A826" s="4"/>
+      <c r="A826" s="7"/>
+      <c r="B826" s="6"/>
     </row>
     <row r="827">
-      <c r="A827" s="4"/>
+      <c r="A827" s="7"/>
+      <c r="B827" s="6"/>
     </row>
     <row r="828">
-      <c r="A828" s="4"/>
+      <c r="A828" s="7"/>
+      <c r="B828" s="6"/>
     </row>
     <row r="829">
-      <c r="A829" s="4"/>
+      <c r="A829" s="7"/>
+      <c r="B829" s="6"/>
     </row>
     <row r="830">
-      <c r="A830" s="4"/>
+      <c r="A830" s="7"/>
+      <c r="B830" s="6"/>
     </row>
     <row r="831">
-      <c r="A831" s="4"/>
+      <c r="A831" s="7"/>
+      <c r="B831" s="6"/>
     </row>
     <row r="832">
-      <c r="A832" s="4"/>
+      <c r="A832" s="7"/>
+      <c r="B832" s="6"/>
     </row>
     <row r="833">
-      <c r="A833" s="4"/>
+      <c r="A833" s="7"/>
+      <c r="B833" s="6"/>
     </row>
     <row r="834">
-      <c r="A834" s="4"/>
+      <c r="A834" s="7"/>
+      <c r="B834" s="6"/>
     </row>
     <row r="835">
-      <c r="A835" s="4"/>
+      <c r="A835" s="7"/>
+      <c r="B835" s="6"/>
     </row>
     <row r="836">
-      <c r="A836" s="4"/>
+      <c r="A836" s="7"/>
+      <c r="B836" s="6"/>
     </row>
     <row r="837">
-      <c r="A837" s="4"/>
+      <c r="A837" s="7"/>
+      <c r="B837" s="6"/>
     </row>
     <row r="838">
-      <c r="A838" s="4"/>
+      <c r="A838" s="7"/>
+      <c r="B838" s="6"/>
     </row>
     <row r="839">
-      <c r="A839" s="4"/>
+      <c r="A839" s="7"/>
+      <c r="B839" s="6"/>
     </row>
     <row r="840">
-      <c r="A840" s="4"/>
+      <c r="A840" s="7"/>
+      <c r="B840" s="6"/>
     </row>
     <row r="841">
-      <c r="A841" s="4"/>
+      <c r="A841" s="7"/>
+      <c r="B841" s="6"/>
     </row>
     <row r="842">
-      <c r="A842" s="4"/>
+      <c r="A842" s="7"/>
+      <c r="B842" s="6"/>
     </row>
     <row r="843">
-      <c r="A843" s="4"/>
+      <c r="A843" s="7"/>
+      <c r="B843" s="6"/>
     </row>
     <row r="844">
-      <c r="A844" s="4"/>
+      <c r="A844" s="7"/>
+      <c r="B844" s="6"/>
     </row>
     <row r="845">
-      <c r="A845" s="4"/>
+      <c r="A845" s="7"/>
+      <c r="B845" s="6"/>
     </row>
     <row r="846">
-      <c r="A846" s="4"/>
+      <c r="A846" s="7"/>
+      <c r="B846" s="6"/>
     </row>
     <row r="847">
-      <c r="A847" s="4"/>
+      <c r="A847" s="7"/>
+      <c r="B847" s="6"/>
     </row>
     <row r="848">
-      <c r="A848" s="4"/>
+      <c r="A848" s="7"/>
+      <c r="B848" s="6"/>
     </row>
     <row r="849">
-      <c r="A849" s="4"/>
+      <c r="A849" s="7"/>
+      <c r="B849" s="6"/>
     </row>
     <row r="850">
-      <c r="A850" s="4"/>
+      <c r="A850" s="7"/>
+      <c r="B850" s="6"/>
     </row>
     <row r="851">
-      <c r="A851" s="4"/>
+      <c r="A851" s="7"/>
+      <c r="B851" s="6"/>
     </row>
     <row r="852">
-      <c r="A852" s="4"/>
+      <c r="A852" s="7"/>
+      <c r="B852" s="6"/>
     </row>
     <row r="853">
-      <c r="A853" s="4"/>
+      <c r="A853" s="7"/>
+      <c r="B853" s="6"/>
     </row>
     <row r="854">
-      <c r="A854" s="4"/>
+      <c r="A854" s="7"/>
+      <c r="B854" s="6"/>
     </row>
     <row r="855">
-      <c r="A855" s="4"/>
+      <c r="A855" s="7"/>
+      <c r="B855" s="6"/>
     </row>
     <row r="856">
-      <c r="A856" s="4"/>
+      <c r="A856" s="7"/>
+      <c r="B856" s="6"/>
     </row>
     <row r="857">
-      <c r="A857" s="4"/>
+      <c r="A857" s="7"/>
+      <c r="B857" s="6"/>
     </row>
     <row r="858">
-      <c r="A858" s="4"/>
+      <c r="A858" s="7"/>
+      <c r="B858" s="6"/>
     </row>
     <row r="859">
-      <c r="A859" s="4"/>
+      <c r="A859" s="7"/>
+      <c r="B859" s="6"/>
     </row>
     <row r="860">
-      <c r="A860" s="4"/>
+      <c r="A860" s="7"/>
+      <c r="B860" s="6"/>
     </row>
     <row r="861">
-      <c r="A861" s="4"/>
+      <c r="A861" s="7"/>
+      <c r="B861" s="6"/>
     </row>
     <row r="862">
-      <c r="A862" s="4"/>
+      <c r="A862" s="7"/>
+      <c r="B862" s="6"/>
     </row>
     <row r="863">
-      <c r="A863" s="4"/>
+      <c r="A863" s="7"/>
+      <c r="B863" s="6"/>
     </row>
     <row r="864">
-      <c r="A864" s="4"/>
+      <c r="A864" s="7"/>
+      <c r="B864" s="6"/>
     </row>
     <row r="865">
-      <c r="A865" s="4"/>
+      <c r="A865" s="7"/>
+      <c r="B865" s="6"/>
     </row>
     <row r="866">
-      <c r="A866" s="4"/>
+      <c r="A866" s="7"/>
+      <c r="B866" s="6"/>
     </row>
     <row r="867">
-      <c r="A867" s="4"/>
+      <c r="A867" s="7"/>
+      <c r="B867" s="6"/>
     </row>
     <row r="868">
-      <c r="A868" s="4"/>
+      <c r="A868" s="7"/>
+      <c r="B868" s="6"/>
     </row>
     <row r="869">
-      <c r="A869" s="4"/>
+      <c r="A869" s="7"/>
+      <c r="B869" s="6"/>
     </row>
     <row r="870">
-      <c r="A870" s="4"/>
+      <c r="A870" s="7"/>
+      <c r="B870" s="6"/>
     </row>
     <row r="871">
-      <c r="A871" s="4"/>
+      <c r="A871" s="7"/>
+      <c r="B871" s="6"/>
     </row>
     <row r="872">
-      <c r="A872" s="4"/>
+      <c r="A872" s="7"/>
+      <c r="B872" s="6"/>
     </row>
     <row r="873">
-      <c r="A873" s="4"/>
+      <c r="A873" s="7"/>
+      <c r="B873" s="6"/>
     </row>
     <row r="874">
-      <c r="A874" s="4"/>
+      <c r="A874" s="7"/>
+      <c r="B874" s="6"/>
     </row>
     <row r="875">
-      <c r="A875" s="4"/>
+      <c r="A875" s="7"/>
+      <c r="B875" s="6"/>
     </row>
     <row r="876">
-      <c r="A876" s="4"/>
+      <c r="A876" s="7"/>
+      <c r="B876" s="6"/>
     </row>
     <row r="877">
-      <c r="A877" s="4"/>
+      <c r="A877" s="7"/>
+      <c r="B877" s="6"/>
     </row>
     <row r="878">
-      <c r="A878" s="4"/>
+      <c r="A878" s="7"/>
+      <c r="B878" s="6"/>
     </row>
     <row r="879">
-      <c r="A879" s="4"/>
+      <c r="A879" s="7"/>
+      <c r="B879" s="6"/>
     </row>
     <row r="880">
-      <c r="A880" s="4"/>
+      <c r="A880" s="7"/>
+      <c r="B880" s="6"/>
     </row>
     <row r="881">
-      <c r="A881" s="4"/>
+      <c r="A881" s="7"/>
+      <c r="B881" s="6"/>
     </row>
     <row r="882">
-      <c r="A882" s="4"/>
+      <c r="A882" s="7"/>
+      <c r="B882" s="6"/>
     </row>
     <row r="883">
-      <c r="A883" s="4"/>
+      <c r="A883" s="7"/>
+      <c r="B883" s="6"/>
     </row>
     <row r="884">
-      <c r="A884" s="4"/>
+      <c r="A884" s="7"/>
+      <c r="B884" s="6"/>
     </row>
     <row r="885">
-      <c r="A885" s="4"/>
+      <c r="A885" s="7"/>
+      <c r="B885" s="6"/>
     </row>
     <row r="886">
-      <c r="A886" s="4"/>
+      <c r="A886" s="7"/>
+      <c r="B886" s="6"/>
     </row>
     <row r="887">
-      <c r="A887" s="4"/>
+      <c r="A887" s="7"/>
+      <c r="B887" s="6"/>
     </row>
     <row r="888">
-      <c r="A888" s="4"/>
+      <c r="A888" s="7"/>
+      <c r="B888" s="6"/>
     </row>
     <row r="889">
-      <c r="A889" s="4"/>
+      <c r="A889" s="7"/>
+      <c r="B889" s="6"/>
     </row>
     <row r="890">
-      <c r="A890" s="4"/>
+      <c r="A890" s="7"/>
+      <c r="B890" s="6"/>
     </row>
     <row r="891">
-      <c r="A891" s="4"/>
+      <c r="A891" s="7"/>
+      <c r="B891" s="6"/>
     </row>
     <row r="892">
-      <c r="A892" s="4"/>
+      <c r="A892" s="7"/>
+      <c r="B892" s="6"/>
     </row>
     <row r="893">
-      <c r="A893" s="4"/>
+      <c r="A893" s="7"/>
+      <c r="B893" s="6"/>
     </row>
     <row r="894">
-      <c r="A894" s="4"/>
+      <c r="A894" s="7"/>
+      <c r="B894" s="6"/>
     </row>
     <row r="895">
-      <c r="A895" s="4"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="4"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="4"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="4"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="4"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="4"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="4"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="4"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="4"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="4"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="4"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="4"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="4"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="4"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="4"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="4"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="4"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="4"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="4"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="4"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="4"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="4"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="4"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="4"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="4"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="4"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="4"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="4"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="4"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="4"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="4"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="4"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="4"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="4"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="4"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="4"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="4"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="4"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="4"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="4"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="4"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="4"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="4"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="4"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="4"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="4"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="4"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="4"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="4"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="4"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="4"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="4"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="4"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="4"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="4"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="4"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="4"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="4"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="4"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="4"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="4"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="4"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="4"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="4"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="4"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="4"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="4"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="4"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="4"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="4"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="4"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="4"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="4"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="4"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="4"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="4"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="4"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="4"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="4"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="4"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="4"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="4"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="4"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="4"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="4"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="4"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="4"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="4"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="4"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="4"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="4"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="4"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="4"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="4"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="4"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="4"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="4"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="4"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="4"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="4"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="4"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="4"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="4"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="4"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="4"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="4"/>
+      <c r="A895" s="7"/>
+      <c r="B895" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$B$71">
+    <sortState ref="A1:B71">
+      <sortCondition ref="A1:A71"/>
+    </sortState>
+  </autoFilter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/taluo.xlsx
+++ b/taluo.xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$B$71</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$C$124</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="211">
   <si>
     <t>塔罗牌名称</t>
   </si>
@@ -37,6 +37,9 @@
     <t>你们从暧昧发展成恋人的几率不是很大，除非是你坚持不懈，再次拿出热情和行动去追求他，否则，你们很难更近一步。对他，你其实没有很强烈的新鲜感和热情，他对你也比较熟悉，觉得现在这种状态不错，也不是非要改变。</t>
   </si>
   <si>
+    <t>他在感情中的热情慢慢消退，情感需求很平淡，身边也没有令他心动的人出现。</t>
+  </si>
+  <si>
     <t>倒吊人正位</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>对于复合，你并没有报太大的希望，因为你也很清楚，即使回头，未必能得到回报，他不是值得奉献的对象。你只是因为多了这一种可能而犹豫，所以藕断丝连。</t>
   </si>
   <si>
+    <t>他认为分手是一种解脱，重回自由身，因此感到浑身轻松。</t>
+  </si>
+  <si>
     <t>命运之轮正位</t>
   </si>
   <si>
@@ -58,12 +64,24 @@
     <t>他很珍惜跟你的这段关系，复合的念头也很强烈。</t>
   </si>
   <si>
+    <t>你对复合，其实是有一些把握的，你们共同经历的很多事情，会让你觉得，冥冥之中，你们之间的缘分未尽。</t>
+  </si>
+  <si>
+    <t>命运之轮逆位</t>
+  </si>
+  <si>
+    <t>状态差，情绪低落，人际关系也疲于处理，感觉很多事情都跟自己预期的不太一样，期待落空。</t>
+  </si>
+  <si>
     <t>圣杯一逆位</t>
   </si>
   <si>
     <t>你们目前处于沟通中断的状态，不能平和积极的交流，两个人的心都比较乱，想从头开始，都渴望对方先低头。</t>
   </si>
   <si>
+    <t>他也不是完全不想复合，只是，他更希望能跟你换一种关系相处。也许这么说很……不得体，但他却是真的有这种想法，跟你继续暧昧，或者肉体关系，但最好不要负责任。</t>
+  </si>
+  <si>
     <t>圣杯三逆位</t>
   </si>
   <si>
@@ -85,6 +103,9 @@
     <t>这段感情有一定的几率会复合，但是复合不代表会解决掉你们之间的问题，甚至有可能加剧冲突，建议两个人坦诚交流，遇见问题不要用极端方式处理。</t>
   </si>
   <si>
+    <t>你回顾恋情的时候，会觉得当时缺乏理解，失去平衡，在情感上被疏远，因此选择断联，但你内心仍然是不甘心的，时常会觉得孤独。</t>
+  </si>
+  <si>
     <t>圣杯五逆位</t>
   </si>
   <si>
@@ -97,6 +118,12 @@
     <t>他心中可能有了理想恋人的剪影。</t>
   </si>
   <si>
+    <t>圣杯六正位</t>
+  </si>
+  <si>
+    <t>建议你好好问问自己，想要一段感情关系，还是想要可以结婚的关系，如果是后者，那现在的这个男孩是很难达到你的预期，你更适合一个成熟而且充满包容度的男人，把你当成小女孩来照顾，而不是像他一样，需要你来迁就的男孩。</t>
+  </si>
+  <si>
     <t>圣杯六逆位</t>
   </si>
   <si>
@@ -112,6 +139,15 @@
     <t>她现在快乐而满足，对这段感情有一定的信心。</t>
   </si>
   <si>
+    <t>你跟他之间，像一道彩虹，出现的很美丽，但并不真实，你们之间差距过大，很多现实问题无法解决，即使复合，也会因为各种原因分分合合，纠结内耗。如果能彻底放下这段感情，你身边很快会出现更适合的伴侣，很可能是亲友介绍的。</t>
+  </si>
+  <si>
+    <t>圣杯十逆位</t>
+  </si>
+  <si>
+    <t>你期待中的美满与稳定，恐怕在他身上实现不了，你们之间的现实处境是没办法改变的，他不愿意跟你定下来，你们如果想继续这样恋爱，感情还可以维持，如果想要结婚，反倒会维持不下去。</t>
+  </si>
+  <si>
     <t>圣杯四正位</t>
   </si>
   <si>
@@ -130,18 +166,45 @@
     <t>他目前的想法比较成熟，不想再沉浸在恋爱游戏，他想朝着婚姻的方向，去选择下一任伴侣。但同时，他也会因为这种想法而感到紧张，生怕做错决定，因此复合犹犹豫豫。</t>
   </si>
   <si>
+    <t>圣杯皇后</t>
+  </si>
+  <si>
+    <t>你的阻碍来自过度敏感和内耗，可能导致陷入负面情绪的漩涡。‌</t>
+  </si>
+  <si>
+    <t>熬过了最初的一段辛苦的日子，选择二的未来会让你打开另一片天地，你良好的人际关系会帮助你越来越热爱这种状态下的自己，无论是更深层的学习还是对未来的规划都会很专注，你会获得很多从前没有体会过的见识与收获。</t>
+  </si>
+  <si>
     <t>圣杯骑士正位</t>
   </si>
   <si>
     <t>对他来说，他觉得你是个很有魅力的恋人，你身上的很多特质都能吸引到他，让他对这段感情很满意。</t>
   </si>
   <si>
+    <t>圣杯骑士逆位</t>
+  </si>
+  <si>
+    <t>你的学习状态不是很踏实，容易受他人影响，很害怕独自面临选择，害怕离开舒适区，面临未知的挑战。</t>
+  </si>
+  <si>
     <t>太阳逆位</t>
   </si>
   <si>
     <t>现在感情的发展遇到了一些困难与障碍，当中或许会夹着一些误会，只要你想解决，通常很快就会解决。除非你想要放弃这段感情，不肯正面面对，或者有了新的选择。</t>
   </si>
   <si>
+    <t>女皇逆位</t>
+  </si>
+  <si>
+    <t>选择一的现状可能会让你变得懒惰，松懈，不愿意继续努力，对于未来也时常陷入彷徨，甚至会觉得痛苦难熬。</t>
+  </si>
+  <si>
+    <t>女祭司逆位</t>
+  </si>
+  <si>
+    <t>选择一的未来，会让你觉得很难学以致用，工作前景不明朗，因此丧失目标，焦虑不堪。</t>
+  </si>
+  <si>
     <t>宝剑一正位</t>
   </si>
   <si>
@@ -163,12 +226,33 @@
     <t>他现在非常的伤心，失望，回想一路走来，觉得很痛心。</t>
   </si>
   <si>
+    <t>宝剑二正位</t>
+  </si>
+  <si>
+    <t>感觉他是个很缺乏安全感的人，物质条件相对较差，有了新的机会，他是很想试一试的。</t>
+  </si>
+  <si>
+    <t>他对于复合，有一些抗拒，他很担心一切重蹈覆辙，该面临的问题还是存在，他很不想面对冲突，内心很逃避。</t>
+  </si>
+  <si>
     <t>宝剑侍从正位</t>
   </si>
   <si>
     <t>在感情关系当中两个人都很在意对方，你们都很紧张彼此的行踪，对方喜欢试探，这让你对这段关系没什么信心。</t>
   </si>
   <si>
+    <t>宝剑侍从逆位</t>
+  </si>
+  <si>
+    <t>他现在的感情是在很意外的状况下发生的，他没有做好什么准备，这段关系比较脆弱，随时都有可能结束。但他这个人目前为止，感情逻辑不是很清晰，对爱情的某些观点有些偏激。</t>
+  </si>
+  <si>
+    <t>宝剑六逆位</t>
+  </si>
+  <si>
+    <t>你无法从失败的感情中走出来，对新恋情的态度十分恐惧，即使有可能出现条件不错的对象，你也不想开始新的恋情。</t>
+  </si>
+  <si>
     <t>宝剑十正位</t>
   </si>
   <si>
@@ -187,6 +271,9 @@
     <t>如果你有足够的行动力，主动争取，你们复合的几率会非常大。</t>
   </si>
   <si>
+    <t>你们倆之间的阻碍来自感情基础薄弱，缺乏了解和根基，很容易因为不了解而产生矛盾。</t>
+  </si>
+  <si>
     <t>宝剑骑士逆位</t>
   </si>
   <si>
@@ -196,12 +283,33 @@
     <t>如果过于直接和冲动的表白，很可能会失败，你们之间缺乏了解和耐心，情感互动都还在朦胧阶段，缺乏深层次的情感交流。</t>
   </si>
   <si>
+    <t>审判正位</t>
+  </si>
+  <si>
+    <t>他对复合也不是一点想法没有，但是他没有下定决心，也没有找到之前感情失败的原因，所以宁愿不去开始，也不愿来做一些改变。</t>
+  </si>
+  <si>
+    <t>审判逆位</t>
+  </si>
+  <si>
+    <t>缺乏清晰的判断力，学习期望过高，很容易受挫，对学习生活缺乏热忱，提不起劲。</t>
+  </si>
+  <si>
     <t>恋人正位</t>
   </si>
   <si>
     <t>两个人对彼此还有很深的感情，所以存在着复合的可能性。你们的精神领域非常默契，如果放弃关系，彼此都会是莫大的遗憾。</t>
   </si>
   <si>
+    <t>恋人逆位</t>
+  </si>
+  <si>
+    <t>你很清楚你们之间复合的概率并不大，只是觉得不甘心，其实，多次分手的经历已经给了你答案，你一直无法放下他，但对于他来说，你只是其中一个选择，并不是全部。</t>
+  </si>
+  <si>
+    <t>给你的建议是，你与对方在一起的时候，并非是特别喜欢对方，而是觉得“终于有人爱我”产生受宠若惊的感觉，因此答应对方，但其实你们之间缺乏了解和感情基础，精神互动匮乏，这段感情很容易无疾而终。</t>
+  </si>
+  <si>
     <t>恶魔正位</t>
   </si>
   <si>
@@ -214,6 +322,12 @@
     <t>你们有一段轻松美好的过去，两个人都比较单纯，没有计较很多东西，但也正因为如此，感情没有抵达深层次的沟通交流，显得有些理想化。</t>
   </si>
   <si>
+    <t>战车逆位</t>
+  </si>
+  <si>
+    <t>这个环境会让你充满竞争，因此不得不打起精神来进步，去学习，有种压力推着你走的感觉，虽然疲倦，甚至被动生长，但是从大方向来看，至少是一直朝着目标前进，而不是停滞不前。</t>
+  </si>
+  <si>
     <t>星币一正位</t>
   </si>
   <si>
@@ -226,6 +340,9 @@
     <t>这段感情本身并没有稳固的基础，两个人基于一时的冲动选择了在一起，一方很可能处于弱势，花了很多时间和精力取悦对方，但是没有得到相应的回报。</t>
   </si>
   <si>
+    <t>你们两个还是有机会复合的，但他不会先提出来，如果你还想跟他在一起，就要付出很多行动，并且姿态不会很好看，甚至要付出一些代价，才能挽回他的心。</t>
+  </si>
+  <si>
     <t>星币七正位</t>
   </si>
   <si>
@@ -235,12 +352,21 @@
     <t>你是一个对自己和伴侣都有高要求的一个人，希望做一步看三步，不管生活还是感情，都要有规划。你想要跟他在一起，并不是因为感情有多深，更多的想法是，你觉得跟他重归于好会节省很多精力，不用再去费心了解新人，但你内心其实也有些忐忑，觉得你们之间摩擦不断，如果认定他，会不会太草率。</t>
   </si>
   <si>
+    <t>这段感情对你来说最大的阻碍就是，财务状况，其实你是很清楚的，与其说他没有谋划未来，不如说他没有谋划未来的条件，如果你们想更进一步去发展，也很可能因为经济原因产生矛盾。</t>
+  </si>
+  <si>
     <t>星币七逆位</t>
   </si>
   <si>
     <t>他对自己目前的感情状态有些灰心，有跟你复合的念头，但也没想好复合是否能让他变得更好，所以始终拿不定主意。</t>
   </si>
   <si>
+    <t>星币三</t>
+  </si>
+  <si>
+    <t>代表着物质空虚，他当时对工作和感情现状很不满意，他不愿意再去投入和奉献，也不想再顾及你的感受，他只想自己肩上的担子轻一些，因此也没有在乎是否有伤害到你</t>
+  </si>
+  <si>
     <t>星币三逆位</t>
   </si>
   <si>
@@ -259,6 +385,18 @@
     <t>这段感情的阻碍来自其他情感的介入，以及某一方对物质上有更高的追求，而另一方无法满足，即使这个问题现在没有体现的很明显，以后也会出现很大的冲突。</t>
   </si>
   <si>
+    <t>星币二正位</t>
+  </si>
+  <si>
+    <t>他现在的女朋友，有可能并不是女朋友，而且，他身边应该不止这一位。</t>
+  </si>
+  <si>
+    <t>星币五正位</t>
+  </si>
+  <si>
+    <t>你们目前的感情处于停滞不前的状态，彼此都觉得很疲倦，经济压力大，缺乏未来规划，走一步看一步，你虽然想好好发展，但他却总是提不起精神……不止对你，他对任何事都一样。</t>
+  </si>
+  <si>
     <t>星币五逆位</t>
   </si>
   <si>
@@ -280,18 +418,42 @@
     <t>这是一段不对等的恋情，从头到尾，受到伤害和放不下的，就只有你一个，去找找朋友，或者多参与社交吧，面对现实，跟他告别，才会有新的开始。</t>
   </si>
   <si>
+    <t>你们在一起的时候，彼此在感情上的经验都不是很多，有些地方做的不是很恰当，甚至有冲动之举，因此想要尝试做一些改善或补救。</t>
+  </si>
+  <si>
+    <t>星币六逆位</t>
+  </si>
+  <si>
+    <t>你对这段感情有所期待，但是觉得对方无法满足你的需求，你多少会有些失望，甚至对感情产生不安的心态。这段感情中，对方对你的尊重也不是很够。</t>
+  </si>
+  <si>
     <t>星币十逆位</t>
   </si>
   <si>
     <t>你们之间的物质平衡被打破了，他对你还是会付出，但不会像从前那样慷慨，你对他的感情也建立在物质与利益之中，如果他不能达到你的理想状态，你很快就会放弃他。</t>
   </si>
   <si>
+    <t>你想要复合，而且几乎是没什么底线的包容他，哪怕他短时间就开始了新恋情也无所谓，哪怕你们之间有很多阻碍也无所谓，你就是不想分开。但其实这种想法非常不理智。</t>
+  </si>
+  <si>
     <t>星币四正位</t>
   </si>
   <si>
     <t>她对你很依赖，会有一点缺乏安全感，因此有时候会想办法控制你以免被其他人夺走。</t>
   </si>
   <si>
+    <t>他对金钱非常看重，很可能在这方面对你有所隐藏。或者是，对方真实的经济情况，跟你看到的不太一样。</t>
+  </si>
+  <si>
+    <t>他对物质特别看重，会有十分吝啬的表现，在钱财收入方面，对你没有开诚布公，而且，以后也不会大方跟你分享。</t>
+  </si>
+  <si>
+    <t>星币四逆位</t>
+  </si>
+  <si>
+    <t>你们的感情一直处于不太稳定的状态，工作、前景，彼此的状态，没有一起规划未来，俩人的感情基础薄弱，价值观也有许多不太兼容之处。</t>
+  </si>
+  <si>
     <t>星币国王正位</t>
   </si>
   <si>
@@ -316,6 +478,15 @@
     <t>他认为家人关系稳定，你是个比较理想的结婚对象，因此他不太重视浪漫，比较追求实际。</t>
   </si>
   <si>
+    <t>你们这段感情很务实，甚至说是有种上班打卡的感觉，缺乏激情和浪漫的元素，你愿意为对方付出，对感情持有实际的态度，对方对工作比较投入。</t>
+  </si>
+  <si>
+    <t>权杖一正位</t>
+  </si>
+  <si>
+    <t>象征着他身边出现了新的机会和选择，对他的工作和未来的生活都有很深的影响，而他想要抓住机会。</t>
+  </si>
+  <si>
     <t>权杖七正位</t>
   </si>
   <si>
@@ -337,12 +508,30 @@
     <t>对于学业和未来，你处在非常矛盾的阶段，无法抉择，过于犹豫，适应性差，失去平衡，无法自我突破，失去控制权。</t>
   </si>
   <si>
+    <t>权杖五正位</t>
+  </si>
+  <si>
+    <t>你可能会得到男方的家人或朋友的支持，帮助你跟他恢复关系。</t>
+  </si>
+  <si>
+    <t>权杖五逆位</t>
+  </si>
+  <si>
+    <t>这段感情中存在很多问题，最初的激情褪去，对方有些退缩，也会在心里反省，这段感情是不是过于冲动了。</t>
+  </si>
+  <si>
     <t>权杖侍从逆位</t>
   </si>
   <si>
     <t>这段感情并不愉快，每天都在提心害怕中度过，但你又无法甘心地放下，因此使得自己陷入极大的情绪起伏当中。与其这样辛苦，不如转移目光，别再执着在这段感情中的角色，做朋友比恋人开心。</t>
   </si>
   <si>
+    <t>权杖八正位</t>
+  </si>
+  <si>
+    <t>你很想复合，想要迅速解决感情中的纠纷，让这段感情恢复活力。</t>
+  </si>
+  <si>
     <t>权杖十正位</t>
   </si>
   <si>
@@ -367,12 +556,24 @@
     <t>如果说你们这段感情会有阻碍，多半来自家长的介入。</t>
   </si>
   <si>
+    <t>你们之间最大的问题是，没有搞清楚感情出现裂痕的真正原因，也没有因此发生改变，所以即使还有可能复合，也会因为同样的原因分开。</t>
+  </si>
+  <si>
+    <t>权杖正位</t>
+  </si>
+  <si>
+    <t>当你接纳了与理想相悖的状况，意识到自己不能再随波逐流，你会开始用积极的态度面对学业，积聚学习的力量，挑战自我提学习能力，追求积极向上的人生。</t>
+  </si>
+  <si>
     <t>权杖骑士正位</t>
   </si>
   <si>
     <t>现在感情上遇到某些挑战，也有可能是相隔两地或是聚少离多的状态，如果想要保持这段感情，就要更主动地付出。</t>
   </si>
   <si>
+    <t>这段感情来的很快，属于冲动型的感情碰撞，有行动力，也有热情与冒险精神，但是缺乏一定的感情基础。</t>
+  </si>
+  <si>
     <t>权杖骑士逆位</t>
   </si>
   <si>
@@ -400,22 +601,52 @@
     <t>你对工作缺乏自律，没有严格要求自己，即使有能力也不想受人摆布，很难长时间从事一项工作。</t>
   </si>
   <si>
+    <t>节制正位</t>
+  </si>
+  <si>
+    <t>意识到对学习的倦怠是一种消耗，你会寻求到一种全新的方式面对学业，而且进展顺利，你能以从容的心态处理面对的问题，慢慢达到理想状态</t>
+  </si>
+  <si>
+    <t>节制逆位</t>
+  </si>
+  <si>
+    <t>你过于骄傲，自尊心强，他过于内敛，遇事喜欢逃避，你们当初分开，有很多阴差阳错在里面，其实复合的几率还是有的，但是要建立在你们可以有效沟通，一起讨论你们之间的情况，并设法找出改善之道，用实际去改变。</t>
+  </si>
+  <si>
+    <t>先不要考虑复合的事，花一段时间去认真考虑，这个人到底适不适合你，你们之间的现实问题能不能解决，如果把这些想通，你可能会想通一些事情。</t>
+  </si>
+  <si>
     <t>隐士逆位</t>
   </si>
   <si>
     <t>你们的感情状况不太明朗，虽然没有实质性的在一起，但是彼此间有一些说不清道不明的情愫，还有种缘分未尽的感觉。</t>
   </si>
   <si>
+    <t>你目前状态非常纠结低落，经常会怀疑自己。其实，你本是个心中目标明确，就会朝着目标前进的一个人，目前的纠结除了对择校，对家人的看法和未来的方向也不太有把握。</t>
+  </si>
+  <si>
     <t>高塔正位</t>
   </si>
   <si>
     <t>高塔的出现，意味着不破不立，你不用去纠结过去 种种，只要清楚自己到底想要什么样的结果，想好好在一起，就放下心中所有的不快，用她的方式，好好爱她。</t>
   </si>
   <si>
+    <t>你们以分手和断联为代价，让这段感情被打破，尽管这些变化可能带来震撼和不安，但最终会带来个人成长和突破。‌高塔意味着灭亡，也意味着重生。</t>
+  </si>
+  <si>
+    <t>你们这段感情，其实不太适合开始，对他来说，他并没有做好开始新感情的准备，但你却是个不错的人选，他觉得选择你自己不会有任何损失，因此决定在你身边，但他没有真心对待这段感情，内心深处也十分消极。</t>
+  </si>
+  <si>
     <t>高塔逆位</t>
   </si>
   <si>
     <t>你们两个之间，面对着巨大的压力，两个人都顾虑重重，无法突破暧昧，修成正果。</t>
+  </si>
+  <si>
+    <t>魔术师正位</t>
+  </si>
+  <si>
+    <t>你在感情中控制欲强，情绪变化快，导致对方很恐惧与你相处，觉得压力很大，你自己也会常常陷入自我怀疑。</t>
   </si>
 </sst>
 </file>
@@ -703,7 +934,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="41.88"/>
+    <col customWidth="1" min="2" max="2" width="82.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -738,10 +969,10 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -749,10 +980,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -760,10 +991,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
@@ -771,10 +1002,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -782,10 +1013,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -793,10 +1024,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
@@ -804,10 +1035,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -815,10 +1046,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>4</v>
@@ -826,10 +1057,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
@@ -837,10 +1068,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>4</v>
@@ -848,10 +1079,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
@@ -859,10 +1090,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
@@ -870,10 +1101,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
@@ -881,10 +1112,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>4</v>
@@ -892,10 +1123,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
@@ -903,10 +1134,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>4</v>
@@ -914,10 +1145,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -925,10 +1156,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -936,10 +1167,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>4</v>
@@ -947,10 +1178,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4</v>
@@ -958,10 +1189,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>4</v>
@@ -969,10 +1200,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>4</v>
@@ -980,10 +1211,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>4</v>
@@ -991,10 +1222,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -1002,10 +1233,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>4</v>
@@ -1013,10 +1244,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>4</v>
@@ -1024,10 +1255,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>4</v>
@@ -1035,10 +1266,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>4</v>
@@ -1046,10 +1277,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>4</v>
@@ -1057,10 +1288,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>4</v>
@@ -1068,10 +1299,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>4</v>
@@ -1079,10 +1310,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>4</v>
@@ -1090,10 +1321,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>4</v>
@@ -1101,10 +1332,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>4</v>
@@ -1112,10 +1343,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>4</v>
@@ -1123,10 +1354,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>4</v>
@@ -1134,10 +1365,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>4</v>
@@ -1145,10 +1376,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>4</v>
@@ -1156,10 +1387,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>4</v>
@@ -1167,10 +1398,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>4</v>
@@ -1178,10 +1409,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>4</v>
@@ -1189,21 +1420,21 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>83</v>
+      <c r="A46" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>4</v>
@@ -1211,10 +1442,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>4</v>
@@ -1222,10 +1453,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>4</v>
@@ -1233,10 +1464,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>4</v>
@@ -1244,10 +1475,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>4</v>
@@ -1255,10 +1486,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>4</v>
@@ -1266,10 +1497,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>4</v>
@@ -1277,10 +1508,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>4</v>
@@ -1288,10 +1519,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>4</v>
@@ -1299,10 +1530,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>4</v>
@@ -1310,10 +1541,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>4</v>
@@ -1321,10 +1552,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>4</v>
@@ -1332,10 +1563,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>4</v>
@@ -1343,10 +1574,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>4</v>
@@ -1354,10 +1585,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>4</v>
@@ -1365,10 +1596,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>4</v>
@@ -1376,10 +1607,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>4</v>
@@ -1387,10 +1618,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>4</v>
@@ -1398,10 +1629,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>4</v>
@@ -1409,10 +1640,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>4</v>
@@ -1420,10 +1651,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>4</v>
@@ -1431,10 +1662,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>4</v>
@@ -1442,10 +1673,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>4</v>
@@ -1453,10 +1684,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>4</v>
@@ -1464,10 +1695,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>4</v>
@@ -1475,226 +1706,597 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="7"/>
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="7"/>
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="7"/>
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="7"/>
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="7"/>
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="7"/>
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="7"/>
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="7"/>
-      <c r="B79" s="6"/>
+      <c r="C79" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="7"/>
-      <c r="B80" s="6"/>
+      <c r="A80" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="7"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="7"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="7"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="7"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="7"/>
-      <c r="B85" s="6"/>
+      <c r="A85" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="7"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="7"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="7"/>
-      <c r="B88" s="6"/>
+      <c r="A88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="7"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="7"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="7"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="7"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="7"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="7"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="7"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="7"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="7"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="7"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="7"/>
-      <c r="B99" s="6"/>
+      <c r="A99" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="7"/>
-      <c r="B100" s="6"/>
+      <c r="A100" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="7"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="7"/>
-      <c r="B102" s="6"/>
+      <c r="A102" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="7"/>
-      <c r="B103" s="6"/>
+      <c r="A103" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="7"/>
-      <c r="B104" s="6"/>
+      <c r="A104" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="7"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="7"/>
-      <c r="B106" s="6"/>
+      <c r="A106" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="7"/>
-      <c r="B107" s="6"/>
+      <c r="A107" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="7"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="7"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="7"/>
-      <c r="B110" s="6"/>
+      <c r="A110" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="7"/>
-      <c r="B111" s="6"/>
+      <c r="A111" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="7"/>
-      <c r="B112" s="6"/>
+      <c r="A112" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="7"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="7"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="7"/>
-      <c r="B115" s="6"/>
+      <c r="A115" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="7"/>
-      <c r="B116" s="6"/>
+      <c r="A116" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="7"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="7"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="7"/>
-      <c r="B119" s="6"/>
+      <c r="A119" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="7"/>
-      <c r="B120" s="6"/>
+      <c r="A120" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="7"/>
-      <c r="B121" s="6"/>
+      <c r="A121" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="7"/>
-      <c r="B122" s="6"/>
+      <c r="A122" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="7"/>
-      <c r="B123" s="6"/>
+      <c r="A123" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="7"/>
-      <c r="B124" s="6"/>
+      <c r="A124" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="7"/>
@@ -4568,222 +5170,10 @@
       <c r="A842" s="7"/>
       <c r="B842" s="6"/>
     </row>
-    <row r="843">
-      <c r="A843" s="7"/>
-      <c r="B843" s="6"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="7"/>
-      <c r="B844" s="6"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="7"/>
-      <c r="B845" s="6"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="7"/>
-      <c r="B846" s="6"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="7"/>
-      <c r="B847" s="6"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="7"/>
-      <c r="B848" s="6"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="7"/>
-      <c r="B849" s="6"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="7"/>
-      <c r="B850" s="6"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="7"/>
-      <c r="B851" s="6"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="7"/>
-      <c r="B852" s="6"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="7"/>
-      <c r="B853" s="6"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="7"/>
-      <c r="B854" s="6"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="7"/>
-      <c r="B855" s="6"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="7"/>
-      <c r="B856" s="6"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="7"/>
-      <c r="B857" s="6"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="7"/>
-      <c r="B858" s="6"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="7"/>
-      <c r="B859" s="6"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="7"/>
-      <c r="B860" s="6"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="7"/>
-      <c r="B861" s="6"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="7"/>
-      <c r="B862" s="6"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="7"/>
-      <c r="B863" s="6"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="7"/>
-      <c r="B864" s="6"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="7"/>
-      <c r="B865" s="6"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="7"/>
-      <c r="B866" s="6"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="7"/>
-      <c r="B867" s="6"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="7"/>
-      <c r="B868" s="6"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="7"/>
-      <c r="B869" s="6"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="7"/>
-      <c r="B870" s="6"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="7"/>
-      <c r="B871" s="6"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="7"/>
-      <c r="B872" s="6"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="7"/>
-      <c r="B873" s="6"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="7"/>
-      <c r="B874" s="6"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="7"/>
-      <c r="B875" s="6"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="7"/>
-      <c r="B876" s="6"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="7"/>
-      <c r="B877" s="6"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="7"/>
-      <c r="B878" s="6"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="7"/>
-      <c r="B879" s="6"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="7"/>
-      <c r="B880" s="6"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="7"/>
-      <c r="B881" s="6"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="7"/>
-      <c r="B882" s="6"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="7"/>
-      <c r="B883" s="6"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="7"/>
-      <c r="B884" s="6"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="7"/>
-      <c r="B885" s="6"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="7"/>
-      <c r="B886" s="6"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="7"/>
-      <c r="B887" s="6"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="7"/>
-      <c r="B888" s="6"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="7"/>
-      <c r="B889" s="6"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="7"/>
-      <c r="B890" s="6"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="7"/>
-      <c r="B891" s="6"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="7"/>
-      <c r="B892" s="6"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="7"/>
-      <c r="B893" s="6"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="7"/>
-      <c r="B894" s="6"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="7"/>
-      <c r="B895" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$71">
-    <sortState ref="A1:B71">
-      <sortCondition ref="A1:A71"/>
+  <autoFilter ref="$A$1:$C$124">
+    <sortState ref="A1:C124">
+      <sortCondition ref="A1:A124"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
@@ -4794,12 +5184,448 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>